--- a/data/strategies/中信建投场外策略结果.xlsx
+++ b/data/strategies/中信建投场外策略结果.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K\project_indexfund\202106\data\strategies\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="port_nav" sheetId="1" r:id="rId1"/>
@@ -18,25 +13,25 @@
     <sheet name="top_stk" sheetId="4" r:id="rId4"/>
     <sheet name="top_label" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="193">
+  <si>
+    <t>汇添富中证主要消费ETF联接</t>
+  </si>
   <si>
     <t>南方中证申万有色金属ETF联接A</t>
   </si>
   <si>
-    <t>汇添富中证主要消费ETF联接</t>
+    <t>华宝中证科技龙头ETF</t>
   </si>
   <si>
     <t>方正富邦中证保险</t>
   </si>
   <si>
-    <t>华宝中证科技龙头ETF</t>
-  </si>
-  <si>
     <t>经济复苏+利率上行</t>
   </si>
   <si>
@@ -67,546 +62,555 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>-1.89%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>10.41%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
+    <t>-3.64%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>1.14%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>-3.17%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>14.45%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>15.13%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>20.27%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
+  </si>
+  <si>
+    <t>场外权重</t>
+  </si>
+  <si>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
+  </si>
+  <si>
+    <t>场外基金</t>
+  </si>
+  <si>
+    <t>场外代码</t>
+  </si>
+  <si>
+    <t>000248.OF</t>
+  </si>
+  <si>
+    <t>004432.OF</t>
+  </si>
+  <si>
+    <t>007873.OF</t>
+  </si>
+  <si>
+    <t>167301.OF</t>
+  </si>
+  <si>
+    <t>-9.18%</t>
+  </si>
+  <si>
+    <t>12.18%</t>
+  </si>
+  <si>
+    <t>2.93%</t>
+  </si>
+  <si>
+    <t>-10.46%</t>
+  </si>
+  <si>
+    <t>-3.54%</t>
+  </si>
+  <si>
+    <t>23.14%</t>
+  </si>
+  <si>
+    <t>8.58%</t>
+  </si>
+  <si>
+    <t>-9.80%</t>
+  </si>
+  <si>
+    <t>-8.61%</t>
+  </si>
+  <si>
+    <t>27.53%</t>
+  </si>
+  <si>
+    <t>1.17%</t>
+  </si>
+  <si>
+    <t>-15.08%</t>
+  </si>
+  <si>
+    <t>18.20%</t>
+  </si>
+  <si>
+    <t>36.04%</t>
+  </si>
+  <si>
+    <t>21.73%</t>
+  </si>
+  <si>
+    <t>18.28%</t>
+  </si>
+  <si>
+    <t>20.31%</t>
+  </si>
+  <si>
+    <t>32.11%</t>
+  </si>
+  <si>
+    <t>20.67%</t>
+  </si>
+  <si>
+    <t>19.66%</t>
+  </si>
+  <si>
+    <t>28.26%</t>
+  </si>
+  <si>
+    <t>38.54%</t>
+  </si>
+  <si>
+    <t>24.10%</t>
+  </si>
+  <si>
+    <t>23.40%</t>
+  </si>
+  <si>
+    <t>股票代码</t>
+  </si>
+  <si>
+    <t>股票权重</t>
+  </si>
+  <si>
+    <t>股票名称</t>
+  </si>
+  <si>
+    <t>财报主营构成</t>
+  </si>
+  <si>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>002415.SZ</t>
+  </si>
+  <si>
+    <t>600276.SH</t>
+  </si>
+  <si>
+    <t>000725.SZ</t>
+  </si>
+  <si>
+    <t>603501.SH</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>600519.SH</t>
+  </si>
+  <si>
+    <t>600887.SH</t>
+  </si>
+  <si>
+    <t>300782.SZ</t>
+  </si>
+  <si>
+    <t>002230.SZ</t>
+  </si>
+  <si>
+    <t>000100.SZ</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>002241.SZ</t>
+  </si>
+  <si>
+    <t>603986.SH</t>
+  </si>
+  <si>
+    <t>000568.SZ</t>
+  </si>
+  <si>
+    <t>603288.SH</t>
+  </si>
+  <si>
+    <t>002714.SZ</t>
+  </si>
+  <si>
+    <t>600809.SH</t>
+  </si>
+  <si>
+    <t>600196.SH</t>
+  </si>
+  <si>
+    <t>600703.SH</t>
+  </si>
+  <si>
+    <t>600570.SH</t>
+  </si>
+  <si>
+    <t>331.09%</t>
+  </si>
+  <si>
+    <t>307.46%</t>
+  </si>
+  <si>
+    <t>255.62%</t>
+  </si>
+  <si>
+    <t>202.92%</t>
+  </si>
+  <si>
+    <t>167.87%</t>
+  </si>
+  <si>
+    <t>159.70%</t>
+  </si>
+  <si>
+    <t>154.60%</t>
+  </si>
+  <si>
+    <t>151.83%</t>
+  </si>
+  <si>
+    <t>145.46%</t>
+  </si>
+  <si>
+    <t>129.86%</t>
+  </si>
+  <si>
+    <t>124.08%</t>
+  </si>
+  <si>
+    <t>123.65%</t>
+  </si>
+  <si>
+    <t>120.78%</t>
+  </si>
+  <si>
+    <t>119.26%</t>
+  </si>
+  <si>
+    <t>112.46%</t>
+  </si>
+  <si>
+    <t>110.45%</t>
+  </si>
+  <si>
+    <t>107.78%</t>
+  </si>
+  <si>
+    <t>105.30%</t>
+  </si>
+  <si>
+    <t>104.21%</t>
+  </si>
+  <si>
+    <t>94.22%</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>京东方A</t>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>伊利股份</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>TCL科技</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>歌尔股份</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>海天味业</t>
+  </si>
+  <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>恒生电子</t>
+  </si>
+  <si>
+    <t>前端音视频产品</t>
+  </si>
+  <si>
+    <t>抗肿瘤</t>
+  </si>
+  <si>
+    <t>显示器件业务</t>
+  </si>
+  <si>
+    <t>CMOS图像传感器产品</t>
+  </si>
+  <si>
+    <t>酒类</t>
+  </si>
+  <si>
+    <t>茅台酒</t>
+  </si>
+  <si>
+    <t>液体乳</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
+    <t>教育产品和服务</t>
+  </si>
+  <si>
+    <t>半导体显示业务</t>
+  </si>
+  <si>
+    <t>运营商网络</t>
+  </si>
+  <si>
+    <t>智能声学整机</t>
+  </si>
+  <si>
+    <t>存储芯片销售</t>
+  </si>
+  <si>
+    <t>中高档酒类</t>
+  </si>
+  <si>
+    <t>酱油</t>
+  </si>
+  <si>
+    <t>生猪</t>
+  </si>
+  <si>
+    <t>白酒</t>
+  </si>
+  <si>
+    <t>药品制造与研发</t>
+  </si>
+  <si>
+    <t>化合物半导体产品</t>
+  </si>
+  <si>
+    <t>软件收入</t>
+  </si>
+  <si>
+    <t>35.01%</t>
+  </si>
+  <si>
+    <t>-32.63%</t>
+  </si>
+  <si>
+    <t>8.44%</t>
+  </si>
+  <si>
+    <t>50.37%</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>-19.50%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>64.39%</t>
+  </si>
+  <si>
+    <t>17.02%</t>
+  </si>
+  <si>
+    <t>2.87%</t>
+  </si>
+  <si>
+    <t>4.62%</t>
+  </si>
+  <si>
+    <t>38.13%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>-23.57%</t>
+  </si>
+  <si>
+    <t>7.27%</t>
+  </si>
+  <si>
+    <t>19.71%</t>
+  </si>
+  <si>
+    <t>25.89%</t>
+  </si>
+  <si>
+    <t>24.28%</t>
+  </si>
+  <si>
+    <t>-15.58%</t>
+  </si>
+  <si>
+    <t>一级标签</t>
+  </si>
+  <si>
+    <t>标签占比</t>
+  </si>
+  <si>
+    <t>食品饮料</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>电子</t>
+  </si>
+  <si>
+    <t>医药生物</t>
+  </si>
+  <si>
+    <t>软件开发</t>
+  </si>
+  <si>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>饲料养殖</t>
+  </si>
+  <si>
+    <t>生物制品</t>
+  </si>
+  <si>
+    <t>16.60%</t>
+  </si>
+  <si>
+    <t>9.89%</t>
+  </si>
+  <si>
+    <t>9.61%</t>
+  </si>
+  <si>
+    <t>6.69%</t>
+  </si>
+  <si>
+    <t>6.21%</t>
+  </si>
+  <si>
+    <t>4.84%</t>
+  </si>
+  <si>
+    <t>2.51%</t>
   </si>
   <si>
     <t>2.50%</t>
   </si>
   <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>15.71%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>16.98%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>22.90%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
-  </si>
-  <si>
-    <t>场外权重</t>
-  </si>
-  <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
-  </si>
-  <si>
-    <t>场外基金</t>
-  </si>
-  <si>
-    <t>场外代码</t>
-  </si>
-  <si>
-    <t>004432.OF</t>
-  </si>
-  <si>
-    <t>000248.OF</t>
-  </si>
-  <si>
-    <t>167301.OF</t>
-  </si>
-  <si>
-    <t>007873.OF</t>
-  </si>
-  <si>
-    <t>-1.50%</t>
-  </si>
-  <si>
-    <t>-5.98%</t>
-  </si>
-  <si>
-    <t>-6.54%</t>
-  </si>
-  <si>
-    <t>2.04%</t>
-  </si>
-  <si>
-    <t>14.33%</t>
-  </si>
-  <si>
-    <t>6.46%</t>
-  </si>
-  <si>
-    <t>-4.89%</t>
-  </si>
-  <si>
-    <t>16.31%</t>
-  </si>
-  <si>
-    <t>11.73%</t>
-  </si>
-  <si>
-    <t>-2.83%</t>
-  </si>
-  <si>
-    <t>-9.23%</t>
-  </si>
-  <si>
-    <t>1.51%</t>
-  </si>
-  <si>
-    <t>26.53%</t>
-  </si>
-  <si>
-    <t>16.54%</t>
-  </si>
-  <si>
-    <t>14.25%</t>
-  </si>
-  <si>
-    <t>18.22%</t>
-  </si>
-  <si>
-    <t>29.01%</t>
-  </si>
-  <si>
-    <t>20.58%</t>
-  </si>
-  <si>
-    <t>18.29%</t>
-  </si>
-  <si>
-    <t>20.20%</t>
-  </si>
-  <si>
-    <t>38.11%</t>
-  </si>
-  <si>
-    <t>28.64%</t>
-  </si>
-  <si>
-    <t>23.40%</t>
-  </si>
-  <si>
-    <t>24.21%</t>
-  </si>
-  <si>
-    <t>股票代码</t>
-  </si>
-  <si>
-    <t>股票权重</t>
-  </si>
-  <si>
-    <t>股票名称</t>
-  </si>
-  <si>
-    <t>财报主营构成</t>
-  </si>
-  <si>
-    <t>区间涨跌幅</t>
-  </si>
-  <si>
-    <t>601318.SH</t>
-  </si>
-  <si>
-    <t>601601.SH</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
-    <t>600276.SH</t>
-  </si>
-  <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>000725.SZ</t>
-  </si>
-  <si>
-    <t>601628.SH</t>
-  </si>
-  <si>
-    <t>600519.SH</t>
-  </si>
-  <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>600111.SH</t>
-  </si>
-  <si>
-    <t>603501.SH</t>
-  </si>
-  <si>
-    <t>600887.SH</t>
-  </si>
-  <si>
-    <t>002340.SZ</t>
-  </si>
-  <si>
-    <t>603993.SH</t>
-  </si>
-  <si>
-    <t>601336.SH</t>
-  </si>
-  <si>
-    <t>600547.SH</t>
-  </si>
-  <si>
-    <t>002230.SZ</t>
-  </si>
-  <si>
-    <t>000568.SZ</t>
-  </si>
-  <si>
-    <t>4.30%</t>
-  </si>
-  <si>
-    <t>3.78%</t>
-  </si>
-  <si>
-    <t>3.56%</t>
-  </si>
-  <si>
-    <t>3.34%</t>
-  </si>
-  <si>
-    <t>3.00%</t>
-  </si>
-  <si>
-    <t>2.87%</t>
-  </si>
-  <si>
-    <t>2.57%</t>
-  </si>
-  <si>
-    <t>2.03%</t>
-  </si>
-  <si>
-    <t>1.95%</t>
-  </si>
-  <si>
-    <t>1.82%</t>
-  </si>
-  <si>
-    <t>1.73%</t>
-  </si>
-  <si>
-    <t>1.64%</t>
-  </si>
-  <si>
-    <t>1.54%</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>1.48%</t>
-  </si>
-  <si>
-    <t>1.41%</t>
-  </si>
-  <si>
-    <t>1.37%</t>
-  </si>
-  <si>
-    <t>1.33%</t>
-  </si>
-  <si>
-    <t>1.30%</t>
-  </si>
-  <si>
-    <t>1.26%</t>
-  </si>
-  <si>
-    <t>中国平安</t>
-  </si>
-  <si>
-    <t>中国太保</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>京东方A</t>
-  </si>
-  <si>
-    <t>中国人寿</t>
-  </si>
-  <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
-    <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>伊利股份</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>洛阳钼业</t>
-  </si>
-  <si>
-    <t>新华保险</t>
-  </si>
-  <si>
-    <t>山东黄金</t>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-  </si>
-  <si>
-    <t>产险:机动车辆保险</t>
-  </si>
-  <si>
-    <t>个人寿险</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>加工、冶炼及贸易金</t>
-  </si>
-  <si>
-    <t>抗肿瘤</t>
-  </si>
-  <si>
-    <t>前端音视频产品</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>显示器件业务</t>
-  </si>
-  <si>
-    <t>人寿保险</t>
-  </si>
-  <si>
-    <t>茅台酒</t>
-  </si>
-  <si>
-    <t>酒类</t>
-  </si>
-  <si>
-    <t>其他业务</t>
-  </si>
-  <si>
-    <t>CMOS图像传感器产品</t>
-  </si>
-  <si>
-    <t>液体乳</t>
-  </si>
-  <si>
-    <t>三元材料</t>
-  </si>
-  <si>
-    <t>精炼金属贸易</t>
-  </si>
-  <si>
-    <t>寿险:保险营销员:续期业务</t>
-  </si>
-  <si>
-    <t>外购合质金</t>
-  </si>
-  <si>
-    <t>教育产品和服务</t>
-  </si>
-  <si>
-    <t>中高档酒类</t>
-  </si>
-  <si>
-    <t>-22.18%</t>
-  </si>
-  <si>
-    <t>-16.40%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>-26.78%</t>
-  </si>
-  <si>
-    <t>36.18%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>7.93%</t>
-  </si>
-  <si>
-    <t>-7.73%</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>59.14%</t>
-  </si>
-  <si>
-    <t>30.18%</t>
-  </si>
-  <si>
-    <t>-13.35%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>-10.07%</t>
-  </si>
-  <si>
-    <t>-18.16%</t>
-  </si>
-  <si>
-    <t>-16.68%</t>
-  </si>
-  <si>
-    <t>69.88%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>一级标签</t>
-  </si>
-  <si>
-    <t>标签占比</t>
-  </si>
-  <si>
-    <t>保险</t>
-  </si>
-  <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>食品饮料</t>
-  </si>
-  <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t>医药生物</t>
-  </si>
-  <si>
-    <t>集成电路</t>
-  </si>
-  <si>
-    <t>软件开发</t>
-  </si>
-  <si>
-    <t>26.04%</t>
-  </si>
-  <si>
-    <t>17.63%</t>
-  </si>
-  <si>
-    <t>17.38%</t>
-  </si>
-  <si>
-    <t>14.41%</t>
-  </si>
-  <si>
-    <t>11.19%</t>
-  </si>
-  <si>
-    <t>6.85%</t>
-  </si>
-  <si>
-    <t>3.52%</t>
-  </si>
-  <si>
-    <t>2.97%</t>
+    <t>2.23%</t>
+  </si>
+  <si>
+    <t>2.13%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -614,15 +618,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -666,28 +663,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -729,7 +718,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -761,10 +750,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -796,7 +784,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -972,14 +959,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>44196</v>
       </c>
@@ -1031,50 +1018,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>44200</v>
       </c>
       <c r="B3">
-        <v>1.0539259259259259</v>
+        <v>1.03771535910305</v>
       </c>
       <c r="C3">
-        <v>1.0377153591030499</v>
+        <v>1.053925925925926</v>
       </c>
       <c r="D3">
-        <v>0.98710317460317454</v>
+        <v>1.010160665523592</v>
       </c>
       <c r="E3">
-        <v>1.010160665523592</v>
+        <v>0.9870921901829594</v>
       </c>
       <c r="F3">
-        <v>1.025782892499127</v>
+        <v>1.019137932444584</v>
       </c>
       <c r="G3">
-        <v>1.0181683683806311</v>
+        <v>1.018168368380631</v>
       </c>
       <c r="H3">
-        <v>1.0108284129265499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.01082841292655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.088139473452496</v>
+      </c>
+      <c r="C4">
         <v>1.065283950617284</v>
       </c>
-      <c r="C4">
-        <v>1.0881394734524961</v>
-      </c>
       <c r="D4">
-        <v>0.97619047619047616</v>
+        <v>1.044262399187147</v>
       </c>
       <c r="E4">
-        <v>1.0442623991871469</v>
+        <v>0.9761975250162828</v>
       </c>
       <c r="F4">
-        <v>1.0474175766327249</v>
+        <v>1.040187751946953</v>
       </c>
       <c r="G4">
         <v>1.027111201157197</v>
@@ -1083,76 +1070,76 @@
         <v>1.03016719468692</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>44202</v>
       </c>
       <c r="B5">
-        <v>1.0703209876543209</v>
+        <v>1.09644565759737</v>
       </c>
       <c r="C5">
-        <v>1.09644565759737</v>
+        <v>1.070320987654321</v>
       </c>
       <c r="D5">
-        <v>0.99404761904761896</v>
+        <v>1.045659490696641</v>
       </c>
       <c r="E5">
-        <v>1.045659490696641</v>
+        <v>0.9940197761856829</v>
       </c>
       <c r="F5">
-        <v>1.0539081583787839</v>
+        <v>1.04995482865229</v>
       </c>
       <c r="G5">
         <v>1.025290909062353</v>
       </c>
       <c r="H5">
-        <v>1.0396024784650251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.039602478465025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.110211029908133</v>
+      </c>
+      <c r="C6">
         <v>1.109135802469136</v>
       </c>
-      <c r="C6">
-        <v>1.1102110299081329</v>
-      </c>
       <c r="D6">
-        <v>1.008928571428571</v>
+        <v>1.0528989648822</v>
       </c>
       <c r="E6">
-        <v>1.0528989648822</v>
+        <v>1.008940730653088</v>
       </c>
       <c r="F6">
-        <v>1.074220865471188</v>
+        <v>1.067157927897254</v>
       </c>
       <c r="G6">
-        <v>1.0268583391837109</v>
+        <v>1.026858339183711</v>
       </c>
       <c r="H6">
-        <v>1.0580221020131291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.058022102013129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.080948607320008</v>
+      </c>
+      <c r="C7">
         <v>1.105481481481482</v>
       </c>
-      <c r="C7">
-        <v>1.0809486073200081</v>
-      </c>
       <c r="D7">
-        <v>1.006944444444444</v>
+        <v>1.058931860036832</v>
       </c>
       <c r="E7">
-        <v>1.058931860036832</v>
+        <v>1.006927586002724</v>
       </c>
       <c r="F7">
-        <v>1.0698135710569929</v>
+        <v>1.056936831220224</v>
       </c>
       <c r="G7">
         <v>1.029917812005761</v>
@@ -1161,76 +1148,76 @@
         <v>1.054523927856635</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.047577118370462</v>
+      </c>
+      <c r="C8">
         <v>1.064395061728395</v>
       </c>
-      <c r="C8">
-        <v>1.0475771183704621</v>
-      </c>
       <c r="D8">
-        <v>1.000992063492063</v>
+        <v>1.067568425731885</v>
       </c>
       <c r="E8">
-        <v>1.0675684257318849</v>
+        <v>1.001006572325182</v>
       </c>
       <c r="F8">
-        <v>1.0522058164864929</v>
+        <v>1.038282364544213</v>
       </c>
       <c r="G8">
-        <v>1.0138665736888479</v>
+        <v>1.013866573688848</v>
       </c>
       <c r="H8">
-        <v>1.0441099996354071</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.044109999635407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>44208</v>
       </c>
       <c r="B9">
-        <v>1.0870123456790119</v>
+        <v>1.069736726248129</v>
       </c>
       <c r="C9">
-        <v>1.069736726248129</v>
+        <v>1.087012345679012</v>
       </c>
       <c r="D9">
-        <v>1.0367063492063491</v>
+        <v>1.092017527148028</v>
       </c>
       <c r="E9">
-        <v>1.0920175271480279</v>
+        <v>1.036710284800758</v>
       </c>
       <c r="F9">
-        <v>1.077513088939702</v>
+        <v>1.065364809925076</v>
       </c>
       <c r="G9">
         <v>1.027660901099557</v>
       </c>
       <c r="H9">
-        <v>1.0738895743664241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.073889574366424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>44209</v>
       </c>
       <c r="B10">
-        <v>1.0547160493827159</v>
+        <v>1.058201989962138</v>
       </c>
       <c r="C10">
-        <v>1.058201989962138</v>
+        <v>1.054716049382716</v>
       </c>
       <c r="D10">
-        <v>1.0238095238095239</v>
+        <v>1.088016765098114</v>
       </c>
       <c r="E10">
-        <v>1.0880167650981141</v>
+        <v>1.023802474983717</v>
       </c>
       <c r="F10">
-        <v>1.0611808890448251</v>
+        <v>1.051194407721091</v>
       </c>
       <c r="G10">
         <v>1.020386015005238</v>
@@ -1239,76 +1226,76 @@
         <v>1.070362616549837</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>44210</v>
       </c>
       <c r="B11">
-        <v>1.0364444444444449</v>
+        <v>1.032608376625283</v>
       </c>
       <c r="C11">
-        <v>1.0326083766252829</v>
+        <v>1.036444444444445</v>
       </c>
       <c r="D11">
-        <v>1.0188492063492061</v>
+        <v>1.075379437353147</v>
       </c>
       <c r="E11">
-        <v>1.0753794373531469</v>
+        <v>1.018828823494582</v>
       </c>
       <c r="F11">
-        <v>1.0457568266284401</v>
+        <v>1.035751300302411</v>
       </c>
       <c r="G11">
         <v>1.011430617658561</v>
       </c>
       <c r="H11">
-        <v>1.0497324079066801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.04973240790668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>44211</v>
       </c>
       <c r="B12">
-        <v>1.0459259259259259</v>
+        <v>1.013354465674621</v>
       </c>
       <c r="C12">
-        <v>1.013354465674621</v>
+        <v>1.045925925925926</v>
       </c>
       <c r="D12">
-        <v>1.0436507936507931</v>
+        <v>1.065917317584302</v>
       </c>
       <c r="E12">
-        <v>1.065917317584302</v>
+        <v>1.043637870803481</v>
       </c>
       <c r="F12">
-        <v>1.046773397406328</v>
+        <v>1.037395150873708</v>
       </c>
       <c r="G12">
-        <v>1.0079141085987211</v>
+        <v>1.007914108598721</v>
       </c>
       <c r="H12">
         <v>1.047356796493766</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.011534736285991</v>
+      </c>
+      <c r="C13">
         <v>1.060938271604938</v>
       </c>
-      <c r="C13">
-        <v>1.011534736285991</v>
-      </c>
       <c r="D13">
-        <v>1.046626984126984</v>
+        <v>1.085921127833873</v>
       </c>
       <c r="E13">
-        <v>1.085921127833873</v>
+        <v>1.046598377642252</v>
       </c>
       <c r="F13">
-        <v>1.058669668398998</v>
+        <v>1.043531075866584</v>
       </c>
       <c r="G13">
         <v>1.023142367573358</v>
@@ -1317,24 +1304,24 @@
         <v>1.058954692600105</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>44215</v>
       </c>
       <c r="B14">
-        <v>1.0259753086419749</v>
+        <v>0.9922808253353291</v>
       </c>
       <c r="C14">
-        <v>0.99228082533532913</v>
+        <v>1.025975308641975</v>
       </c>
       <c r="D14">
-        <v>1.0515873015873021</v>
+        <v>1.069727567155649</v>
       </c>
       <c r="E14">
-        <v>1.069727567155649</v>
+        <v>1.051572029131387</v>
       </c>
       <c r="F14">
-        <v>1.03907994304187</v>
+        <v>1.030185224733978</v>
       </c>
       <c r="G14">
         <v>1.017160061629216</v>
@@ -1343,258 +1330,258 @@
         <v>1.043411516150512</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>44216</v>
       </c>
       <c r="B15">
-        <v>1.0544197530864201</v>
+        <v>0.9986205277215228</v>
       </c>
       <c r="C15">
-        <v>0.99862052772152277</v>
+        <v>1.05441975308642</v>
       </c>
       <c r="D15">
-        <v>1.0277777777777779</v>
+        <v>1.081031307550645</v>
       </c>
       <c r="E15">
-        <v>1.081031307550645</v>
+        <v>1.02776955414767</v>
       </c>
       <c r="F15">
-        <v>1.0495987679484799</v>
+        <v>1.031044357299165</v>
       </c>
       <c r="G15">
-        <v>1.0264342849424619</v>
+        <v>1.026434284942462</v>
       </c>
       <c r="H15">
-        <v>1.0508779975783351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.050877997578335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.019840920430865</v>
+      </c>
+      <c r="C16">
         <v>1.089777777777778</v>
       </c>
-      <c r="C16">
-        <v>1.0198409204308649</v>
-      </c>
       <c r="D16">
-        <v>1.0257936507936509</v>
+        <v>1.10192417603353</v>
       </c>
       <c r="E16">
-        <v>1.1019241760335301</v>
+        <v>1.025756409497306</v>
       </c>
       <c r="F16">
-        <v>1.071689126787555</v>
+        <v>1.046876350459471</v>
       </c>
       <c r="G16">
-        <v>1.0401108195083799</v>
+        <v>1.04011081950838</v>
       </c>
       <c r="H16">
         <v>1.067868032675211</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>44218</v>
       </c>
       <c r="B17">
-        <v>1.0995555555555561</v>
+        <v>1.018725602418479</v>
       </c>
       <c r="C17">
-        <v>1.018725602418479</v>
+        <v>1.099555555555556</v>
       </c>
       <c r="D17">
-        <v>1.001984126984127</v>
+        <v>1.109671683495269</v>
       </c>
       <c r="E17">
-        <v>1.1096716834952689</v>
+        <v>1.001953934513589</v>
       </c>
       <c r="F17">
-        <v>1.073457649793758</v>
+        <v>1.041533997655153</v>
       </c>
       <c r="G17">
-        <v>1.0425153641133891</v>
+        <v>1.042515364113389</v>
       </c>
       <c r="H17">
         <v>1.068791028708822</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>44221</v>
       </c>
       <c r="B18">
-        <v>1.1145679012345679</v>
+        <v>1.055443045405183</v>
       </c>
       <c r="C18">
-        <v>1.0554430454051831</v>
+        <v>1.114567901234568</v>
       </c>
       <c r="D18">
-        <v>1.0128968253968249</v>
+        <v>1.103194259223979</v>
       </c>
       <c r="E18">
-        <v>1.103194259223979</v>
+        <v>1.012907809817041</v>
       </c>
       <c r="F18">
-        <v>1.0842832706459979</v>
+        <v>1.059040969153046</v>
       </c>
       <c r="G18">
-        <v>1.0436932925613029</v>
+        <v>1.043693292561303</v>
       </c>
       <c r="H18">
         <v>1.079563793225861</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>44222</v>
       </c>
       <c r="B19">
-        <v>1.0953086419753091</v>
+        <v>1.047048809838279</v>
       </c>
       <c r="C19">
-        <v>1.0470488098382791</v>
+        <v>1.095308641975309</v>
       </c>
       <c r="D19">
-        <v>0.99007936507936511</v>
+        <v>1.066933384136661</v>
       </c>
       <c r="E19">
-        <v>1.0669333841366611</v>
+        <v>0.99005269702173</v>
       </c>
       <c r="F19">
-        <v>1.060619103898115</v>
+        <v>1.039483919670661</v>
       </c>
       <c r="G19">
-        <v>1.0260479244115459</v>
+        <v>1.026047924411546</v>
       </c>
       <c r="H19">
-        <v>1.0578896971767069</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.057889697176707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.038419770479293</v>
+      </c>
+      <c r="C20">
         <v>1.088987654320988</v>
       </c>
-      <c r="C20">
-        <v>1.038419770479293</v>
-      </c>
       <c r="D20">
-        <v>0.99702380952380931</v>
+        <v>1.075315933193624</v>
       </c>
       <c r="E20">
-        <v>1.075315933193624</v>
+        <v>0.9970394931612291</v>
       </c>
       <c r="F20">
-        <v>1.060958251123544</v>
+        <v>1.039195846646076</v>
       </c>
       <c r="G20">
-        <v>1.0298487068701501</v>
+        <v>1.02984870687015</v>
       </c>
       <c r="H20">
-        <v>1.0607738199179091</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.060773819917909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.020017023274926</v>
+      </c>
+      <c r="C21">
         <v>1.051160493827161</v>
       </c>
-      <c r="C21">
-        <v>1.0200170232749259</v>
-      </c>
       <c r="D21">
-        <v>0.97619047619047616</v>
+        <v>1.026735251158951</v>
       </c>
       <c r="E21">
-        <v>1.0267352511589509</v>
+        <v>0.9761975250162828</v>
       </c>
       <c r="F21">
-        <v>1.02559143819548</v>
+        <v>1.011803769091556</v>
       </c>
       <c r="G21">
-        <v>1.0074240903643881</v>
+        <v>1.007424090364388</v>
       </c>
       <c r="H21">
         <v>1.03182513350821</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>44225</v>
       </c>
       <c r="B22">
-        <v>1.0391111111111111</v>
+        <v>1.018402747204368</v>
       </c>
       <c r="C22">
-        <v>1.018402747204368</v>
+        <v>1.039111111111111</v>
       </c>
       <c r="D22">
-        <v>0.95238095238095233</v>
+        <v>1.022226455832857</v>
       </c>
       <c r="E22">
-        <v>1.0222264558328571</v>
+        <v>0.9523950500325655</v>
       </c>
       <c r="F22">
-        <v>1.015811818634198</v>
+        <v>1.000667999105986</v>
       </c>
       <c r="G22">
-        <v>0.99670651205963157</v>
+        <v>0.9967065120596316</v>
       </c>
       <c r="H22">
-        <v>1.0269933164341269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.026993316434127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.021543247923454</v>
+      </c>
+      <c r="C23">
         <v>1.05037037037037</v>
       </c>
-      <c r="C23">
-        <v>1.0215432479234541</v>
-      </c>
       <c r="D23">
-        <v>0.96130952380952372</v>
+        <v>1.031752079761224</v>
       </c>
       <c r="E23">
-        <v>1.0317520797612241</v>
+        <v>0.9612765705488779</v>
       </c>
       <c r="F23">
-        <v>1.024774819583071</v>
+        <v>1.008096176846817</v>
       </c>
       <c r="G23">
-        <v>1.0041101849975891</v>
+        <v>1.004110184997589</v>
       </c>
       <c r="H23">
         <v>1.039598640643679</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>44229</v>
       </c>
       <c r="B24">
-        <v>1.0795061728395059</v>
+        <v>1.051333979043761</v>
       </c>
       <c r="C24">
-        <v>1.051333979043761</v>
+        <v>1.079506172839506</v>
       </c>
       <c r="D24">
-        <v>0.96130952380952372</v>
+        <v>1.04692957388709</v>
       </c>
       <c r="E24">
-        <v>1.0469295738870901</v>
+        <v>0.9612765705488779</v>
       </c>
       <c r="F24">
-        <v>1.044605036118964</v>
+        <v>1.025536719365897</v>
       </c>
       <c r="G24">
         <v>1.013770768841751</v>
@@ -1603,24 +1590,24 @@
         <v>1.055610031297433</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.057116022423762</v>
+      </c>
+      <c r="C25">
         <v>1.085037037037037</v>
       </c>
-      <c r="C25">
-        <v>1.0571160224237619</v>
-      </c>
       <c r="D25">
-        <v>0.95535714285714279</v>
+        <v>1.02203594335429</v>
       </c>
       <c r="E25">
-        <v>1.02203594335429</v>
+        <v>0.9553555568713363</v>
       </c>
       <c r="F25">
-        <v>1.0382425261708581</v>
+        <v>1.022353823156189</v>
       </c>
       <c r="G25">
         <v>1.00506038061224</v>
@@ -1629,102 +1616,102 @@
         <v>1.052560882238371</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>44231</v>
       </c>
       <c r="B26">
-        <v>1.0416790123456789</v>
+        <v>1.059874966980717</v>
       </c>
       <c r="C26">
-        <v>1.059874966980717</v>
+        <v>1.041679012345679</v>
       </c>
       <c r="D26">
-        <v>0.96626984126984117</v>
+        <v>1.01219279862831</v>
       </c>
       <c r="E26">
-        <v>1.0121927986283099</v>
+        <v>0.9662502220380128</v>
       </c>
       <c r="F26">
-        <v>1.022508381106215</v>
+        <v>1.018108910856696</v>
       </c>
       <c r="G26">
-        <v>0.99398157091678963</v>
+        <v>0.9939815709167896</v>
       </c>
       <c r="H26">
-        <v>1.0504021077314829</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.050402107731483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>44232</v>
       </c>
       <c r="B27">
-        <v>0.99288888888888904</v>
+        <v>1.069208417715946</v>
       </c>
       <c r="C27">
-        <v>1.069208417715946</v>
+        <v>0.992888888888889</v>
       </c>
       <c r="D27">
-        <v>0.98015873015873012</v>
+        <v>1.005588366037975</v>
       </c>
       <c r="E27">
-        <v>1.005588366037975</v>
+        <v>0.9801646041802357</v>
       </c>
       <c r="F27">
-        <v>1.007571962414076</v>
+        <v>1.016733928465832</v>
       </c>
       <c r="G27">
-        <v>0.98001605123831692</v>
+        <v>0.9800160512383169</v>
       </c>
       <c r="H27">
-        <v>1.0522173972279421</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.052217397227942</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>44235</v>
       </c>
       <c r="B28">
-        <v>1.0305185185185191</v>
+        <v>1.089577646678994</v>
       </c>
       <c r="C28">
-        <v>1.0895776466789939</v>
+        <v>1.030518518518519</v>
       </c>
       <c r="D28">
-        <v>0.9722222222222221</v>
+        <v>1.016828602273449</v>
       </c>
       <c r="E28">
-        <v>1.016828602273449</v>
+        <v>0.9722304458523299</v>
       </c>
       <c r="F28">
-        <v>1.026126713415235</v>
+        <v>1.029104721932802</v>
       </c>
       <c r="G28">
-        <v>0.99309733929522193</v>
+        <v>0.9930973392952219</v>
       </c>
       <c r="H28">
-        <v>1.0677893573376269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.067789357337627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>44236</v>
       </c>
       <c r="B29">
-        <v>1.0785185185185191</v>
+        <v>1.114848404801738</v>
       </c>
       <c r="C29">
-        <v>1.114848404801738</v>
+        <v>1.078518518518519</v>
       </c>
       <c r="D29">
-        <v>0.97420634920634908</v>
+        <v>1.040261637137232</v>
       </c>
       <c r="E29">
-        <v>1.040261637137232</v>
+        <v>0.9741843803659186</v>
       </c>
       <c r="F29">
-        <v>1.054676670962917</v>
+        <v>1.050128028836543</v>
       </c>
       <c r="G29">
         <v>1.014256075362292</v>
@@ -1733,50 +1720,50 @@
         <v>1.091140581314799</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.151976754424584</v>
+      </c>
+      <c r="C30">
         <v>1.106172839506173</v>
       </c>
-      <c r="C30">
-        <v>1.151976754424584</v>
-      </c>
       <c r="D30">
-        <v>0.98313492063492058</v>
+        <v>1.062297580491522</v>
       </c>
       <c r="E30">
-        <v>1.062297580491522</v>
+        <v>0.9831251110190065</v>
       </c>
       <c r="F30">
-        <v>1.0789503933791189</v>
+        <v>1.07390100244025</v>
       </c>
       <c r="G30">
-        <v>1.0248244493969789</v>
+        <v>1.024824449396979</v>
       </c>
       <c r="H30">
-        <v>1.1144495892571711</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.114449589257171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.118106307416865</v>
+      </c>
+      <c r="C31">
         <v>1.177382716049383</v>
       </c>
-      <c r="C31">
-        <v>1.1181063074168649</v>
-      </c>
       <c r="D31">
-        <v>1.0138888888888891</v>
+        <v>1.041658728646726</v>
       </c>
       <c r="E31">
-        <v>1.041658728646726</v>
+        <v>1.013855172005447</v>
       </c>
       <c r="F31">
-        <v>1.0958367113006591</v>
+        <v>1.08087018965839</v>
       </c>
       <c r="G31">
         <v>1.038860644782327</v>
@@ -1785,180 +1772,180 @@
         <v>1.106900594670418</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>44246</v>
       </c>
       <c r="B32">
-        <v>1.1936790123456791</v>
+        <v>1.135041530920724</v>
       </c>
       <c r="C32">
-        <v>1.135041530920724</v>
+        <v>1.193679012345679</v>
       </c>
       <c r="D32">
-        <v>1.0327380952380949</v>
+        <v>1.038293008192037</v>
       </c>
       <c r="E32">
-        <v>1.038293008192037</v>
+        <v>1.032743205636805</v>
       </c>
       <c r="F32">
-        <v>1.106171195217108</v>
+        <v>1.094994761761915</v>
       </c>
       <c r="G32">
-        <v>1.0528293056033271</v>
+        <v>1.052829305603327</v>
       </c>
       <c r="H32">
         <v>1.108907775234155</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>44249</v>
       </c>
       <c r="B33">
-        <v>1.2485925925925929</v>
+        <v>1.084118458513105</v>
       </c>
       <c r="C33">
-        <v>1.084118458513105</v>
+        <v>1.248592592592593</v>
       </c>
       <c r="D33">
-        <v>1.0238095238095239</v>
+        <v>1.008128532418873</v>
       </c>
       <c r="E33">
-        <v>1.0081285324188729</v>
+        <v>1.023802474983717</v>
       </c>
       <c r="F33">
-        <v>1.105012014262944</v>
+        <v>1.078814078265974</v>
       </c>
       <c r="G33">
         <v>1.045538713796369</v>
       </c>
       <c r="H33">
-        <v>1.0740776276123569</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.074077627612357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>44250</v>
       </c>
       <c r="B34">
-        <v>1.2332839506172839</v>
+        <v>1.074139297349652</v>
       </c>
       <c r="C34">
-        <v>1.074139297349652</v>
+        <v>1.233283950617284</v>
       </c>
       <c r="D34">
-        <v>1.0486111111111109</v>
+        <v>1.009017590652188</v>
       </c>
       <c r="E34">
-        <v>1.0090175906521881</v>
+        <v>1.048611522292616</v>
       </c>
       <c r="F34">
-        <v>1.1025461655211239</v>
+        <v>1.081228917764908</v>
       </c>
       <c r="G34">
         <v>1.041481928221752</v>
       </c>
       <c r="H34">
-        <v>1.0706888313642109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.070688831364211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.037363153414928</v>
+      </c>
+      <c r="C35">
         <v>1.182617283950617</v>
       </c>
-      <c r="C35">
-        <v>1.0373631534149279</v>
-      </c>
       <c r="D35">
-        <v>1.0277777777777779</v>
+        <v>0.9914904426239918</v>
       </c>
       <c r="E35">
-        <v>0.99149044262399177</v>
+        <v>1.02776955414767</v>
       </c>
       <c r="F35">
-        <v>1.070029976255924</v>
+        <v>1.050595199914617</v>
       </c>
       <c r="G35">
-        <v>1.0265552189297811</v>
+        <v>1.026555218929781</v>
       </c>
       <c r="H35">
         <v>1.043421110703876</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.027530744621526</v>
+      </c>
+      <c r="C36">
         <v>1.170172839506173</v>
       </c>
-      <c r="C36">
-        <v>1.027530744621526</v>
-      </c>
       <c r="D36">
-        <v>1.06547619047619</v>
+        <v>0.9865371181812409</v>
       </c>
       <c r="E36">
-        <v>0.9865371181812409</v>
+        <v>1.06548641127361</v>
       </c>
       <c r="F36">
-        <v>1.068762158723032</v>
+        <v>1.056828111910034</v>
       </c>
       <c r="G36">
-        <v>1.0207378229683479</v>
+        <v>1.020737822968348</v>
       </c>
       <c r="H36">
         <v>1.049559705946129</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>44253</v>
       </c>
       <c r="B37">
-        <v>1.1207901234567901</v>
+        <v>1.001085967538376</v>
       </c>
       <c r="C37">
-        <v>1.0010859675383761</v>
+        <v>1.12079012345679</v>
       </c>
       <c r="D37">
-        <v>1.0238095238095239</v>
+        <v>0.9764399568171716</v>
       </c>
       <c r="E37">
-        <v>0.97643995681717155</v>
+        <v>1.023802474983717</v>
       </c>
       <c r="F37">
-        <v>1.0374015837973789</v>
+        <v>1.024267008952878</v>
       </c>
       <c r="G37">
-        <v>0.99956652233116761</v>
+        <v>0.9995665223311676</v>
       </c>
       <c r="H37">
-        <v>1.0240765722114871</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.024076572211487</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>44256</v>
       </c>
       <c r="B38">
-        <v>1.1593086419753089</v>
+        <v>1.011886941974113</v>
       </c>
       <c r="C38">
-        <v>1.011886941974113</v>
+        <v>1.159308641975309</v>
       </c>
       <c r="D38">
-        <v>1.017857142857143</v>
+        <v>0.9958722296310408</v>
       </c>
       <c r="E38">
-        <v>0.99587222963104083</v>
+        <v>1.0178222511694</v>
       </c>
       <c r="F38">
-        <v>1.0577105480470059</v>
+        <v>1.035527746972148</v>
       </c>
       <c r="G38">
         <v>1.019055741144727</v>
@@ -1967,24 +1954,24 @@
         <v>1.039815477549705</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>0.9921634234392885</v>
+      </c>
+      <c r="C39">
         <v>1.122864197530864</v>
       </c>
-      <c r="C39">
-        <v>0.99216342343928854</v>
-      </c>
       <c r="D39">
-        <v>1.0109126984126979</v>
+        <v>0.991934971740649</v>
       </c>
       <c r="E39">
-        <v>0.99193497174064904</v>
+        <v>1.010894665166677</v>
       </c>
       <c r="F39">
-        <v>1.0396199279404861</v>
+        <v>1.019872666404161</v>
       </c>
       <c r="G39">
         <v>1.010400322909452</v>
@@ -1993,24 +1980,24 @@
         <v>1.026546210247367</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.004901529159696</v>
+      </c>
+      <c r="C40">
         <v>1.161975308641976</v>
       </c>
-      <c r="C40">
-        <v>1.0049015291596961</v>
-      </c>
       <c r="D40">
-        <v>1.0486111111111109</v>
+        <v>1.003302216295167</v>
       </c>
       <c r="E40">
-        <v>1.003302216295167</v>
+        <v>1.048611522292616</v>
       </c>
       <c r="F40">
-        <v>1.0649909219603599</v>
+        <v>1.044979113885489</v>
       </c>
       <c r="G40">
         <v>1.024758485403896</v>
@@ -2019,50 +2006,50 @@
         <v>1.046230395928839</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>0.9637521645974583</v>
+      </c>
+      <c r="C41">
         <v>1.119012345679012</v>
       </c>
-      <c r="C41">
-        <v>0.96375216459745827</v>
-      </c>
       <c r="D41">
-        <v>1.0436507936507931</v>
+        <v>0.9716136406934655</v>
       </c>
       <c r="E41">
-        <v>0.97161364069346545</v>
+        <v>1.043637870803481</v>
       </c>
       <c r="F41">
-        <v>1.032318187070669</v>
+        <v>1.017029521079744</v>
       </c>
       <c r="G41">
         <v>1.005478152568434</v>
       </c>
       <c r="H41">
-        <v>1.0133210778905031</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.013321077890503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>0.9635760617533974</v>
+      </c>
+      <c r="C42">
         <v>1.084641975308642</v>
       </c>
-      <c r="C42">
-        <v>0.96357606175339738</v>
-      </c>
       <c r="D42">
-        <v>1.0188492063492061</v>
+        <v>0.9732647488410491</v>
       </c>
       <c r="E42">
-        <v>0.97326474884104908</v>
+        <v>1.018828823494582</v>
       </c>
       <c r="F42">
-        <v>1.0170558079594141</v>
+        <v>1.003383982234066</v>
       </c>
       <c r="G42">
         <v>1.005715308829281</v>
@@ -2071,1376 +2058,1376 @@
         <v>1.009884308875538</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.915881541486895</v>
+      </c>
+      <c r="C43">
         <v>1.056197530864198</v>
       </c>
-      <c r="C43">
-        <v>0.91588154148689505</v>
-      </c>
       <c r="D43">
-        <v>1.0119047619047621</v>
+        <v>0.9375119070299104</v>
       </c>
       <c r="E43">
-        <v>0.93751190702991039</v>
+        <v>1.011901237491859</v>
       </c>
       <c r="F43">
-        <v>0.98657082987332101</v>
+        <v>0.9742891897303855</v>
       </c>
       <c r="G43">
-        <v>0.98261377610878409</v>
+        <v>0.9826137761087841</v>
       </c>
       <c r="H43">
-        <v>0.97481045959829538</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9748104595982954</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.8903172786240497</v>
+      </c>
+      <c r="C44">
         <v>1.04</v>
       </c>
-      <c r="C44">
-        <v>0.89031727862404975</v>
-      </c>
       <c r="D44">
-        <v>0.99801587301587291</v>
+        <v>0.9120467390614084</v>
       </c>
       <c r="E44">
-        <v>0.91204673906140843</v>
+        <v>0.9979868553496358</v>
       </c>
       <c r="F44">
-        <v>0.966150393910852</v>
+        <v>0.9541312489426892</v>
       </c>
       <c r="G44">
-        <v>0.95930492798145472</v>
+        <v>0.9593049279814547</v>
       </c>
       <c r="H44">
-        <v>0.95389049544354665</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9538904954435466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>44265</v>
       </c>
       <c r="B45">
-        <v>1.0390123456790119</v>
+        <v>0.9041120014088229</v>
       </c>
       <c r="C45">
-        <v>0.90411200140882286</v>
+        <v>1.039012345679012</v>
       </c>
       <c r="D45">
-        <v>0.98611111111111105</v>
+        <v>0.9164285260684575</v>
       </c>
       <c r="E45">
-        <v>0.91642852606845748</v>
+        <v>0.9860856178577772</v>
       </c>
       <c r="F45">
-        <v>0.96757242469924432</v>
+        <v>0.9554540782103988</v>
       </c>
       <c r="G45">
-        <v>0.95212113502044105</v>
+        <v>0.952121135020441</v>
       </c>
       <c r="H45">
-        <v>0.96014806314751233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9601480631475123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9282967919931907</v>
+      </c>
+      <c r="C46">
         <v>1.099950617283951</v>
       </c>
-      <c r="C46">
-        <v>0.92829679199319071</v>
-      </c>
       <c r="D46">
-        <v>1.0128968253968249</v>
+        <v>0.9255096208801676</v>
       </c>
       <c r="E46">
-        <v>0.92550962088016764</v>
+        <v>1.012907809817041</v>
       </c>
       <c r="F46">
-        <v>0.99969833163635113</v>
+        <v>0.9840814258143878</v>
       </c>
       <c r="G46">
-        <v>0.97592628366715828</v>
+        <v>0.9759262836671583</v>
       </c>
       <c r="H46">
-        <v>0.98405960904113954</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9840596090411395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="2">
         <v>44267</v>
       </c>
       <c r="B47">
-        <v>1.0879012345679011</v>
+        <v>0.927386927298876</v>
       </c>
       <c r="C47">
-        <v>0.92738692729887595</v>
+        <v>1.087901234567901</v>
       </c>
       <c r="D47">
-        <v>1.0109126984126979</v>
+        <v>0.9188416841303106</v>
       </c>
       <c r="E47">
-        <v>0.91884168413031064</v>
+        <v>1.010894665166677</v>
       </c>
       <c r="F47">
-        <v>0.99292361375849869</v>
+        <v>0.9800193763718261</v>
       </c>
       <c r="G47">
-        <v>0.97726912209778072</v>
+        <v>0.9772691220977807</v>
       </c>
       <c r="H47">
-        <v>0.98754435082292491</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9875443508229249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.8954242611018169</v>
+      </c>
+      <c r="C48">
         <v>1.089876543209876</v>
       </c>
-      <c r="C48">
-        <v>0.89542426110181694</v>
-      </c>
       <c r="D48">
-        <v>1.0079365079365079</v>
+        <v>0.8859465294976822</v>
       </c>
       <c r="E48">
-        <v>0.88594652949768216</v>
+        <v>1.007934158327906</v>
       </c>
       <c r="F48">
-        <v>0.97697490631691675</v>
+        <v>0.9630733280195738</v>
       </c>
       <c r="G48">
         <v>0.9696502808966706</v>
       </c>
       <c r="H48">
-        <v>0.96627514492572852</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9662751449257285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.9092189838865898</v>
+      </c>
+      <c r="C49">
         <v>1.068246913580247</v>
       </c>
-      <c r="C49">
-        <v>0.90921898388658984</v>
-      </c>
       <c r="D49">
-        <v>1.024801587301587</v>
+        <v>0.8845494379881883</v>
       </c>
       <c r="E49">
-        <v>0.8845494379881883</v>
+        <v>1.024809047308899</v>
       </c>
       <c r="F49">
-        <v>0.9742186593994353</v>
+        <v>0.9695328381421691</v>
       </c>
       <c r="G49">
-        <v>0.97300659168759451</v>
+        <v>0.9730065916875945</v>
       </c>
       <c r="H49">
-        <v>0.97468381149389105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9746838114938911</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>44272</v>
       </c>
       <c r="B50">
-        <v>1.0741728395061729</v>
+        <v>0.9246279827419214</v>
       </c>
       <c r="C50">
-        <v>0.92462798274192137</v>
+        <v>1.074172839506173</v>
       </c>
       <c r="D50">
-        <v>0.9990079365079364</v>
+        <v>0.8970597574141107</v>
       </c>
       <c r="E50">
-        <v>0.8970597574141107</v>
+        <v>0.9989934276748179</v>
       </c>
       <c r="F50">
-        <v>0.97864841205498188</v>
+        <v>0.9692947237567899</v>
       </c>
       <c r="G50">
         <v>0.9777371523344186</v>
       </c>
       <c r="H50">
-        <v>0.97880946944038805</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.978809469440388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9405652901294357</v>
+      </c>
+      <c r="C51">
         <v>1.074271604938271</v>
       </c>
-      <c r="C51">
-        <v>0.94056529012943568</v>
-      </c>
       <c r="D51">
-        <v>0.99107142857142849</v>
+        <v>0.9009970153045025</v>
       </c>
       <c r="E51">
-        <v>0.90099701530450249</v>
+        <v>0.9910592693469121</v>
       </c>
       <c r="F51">
-        <v>0.98130141931514081</v>
+        <v>0.9727610798685469</v>
       </c>
       <c r="G51">
-        <v>0.98535442296426479</v>
+        <v>0.9853544229642648</v>
       </c>
       <c r="H51">
         <v>0.9866597330027691</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.9163804995450676</v>
+      </c>
+      <c r="C52">
         <v>1.053037037037037</v>
       </c>
-      <c r="C52">
-        <v>0.91638049954506762</v>
-      </c>
       <c r="D52">
-        <v>0.96230158730158721</v>
+        <v>0.8799136343430495</v>
       </c>
       <c r="E52">
-        <v>0.87991363434304948</v>
+        <v>0.96228314287406</v>
       </c>
       <c r="F52">
-        <v>0.95838663625549714</v>
+        <v>0.9480596677714772</v>
       </c>
       <c r="G52">
-        <v>0.97479076064336889</v>
+        <v>0.9747907606433689</v>
       </c>
       <c r="H52">
-        <v>0.96081584406164311</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9608158440616431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2">
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.9197851545302457</v>
+      </c>
+      <c r="C53">
         <v>1.056493827160494</v>
       </c>
-      <c r="C53">
-        <v>0.91978515453024567</v>
-      </c>
       <c r="D53">
-        <v>0.96825396825396814</v>
+        <v>0.8883596875595352</v>
       </c>
       <c r="E53">
-        <v>0.8883596875595352</v>
+        <v>0.968263366688377</v>
       </c>
       <c r="F53">
-        <v>0.96389305338860987</v>
+        <v>0.9531546934762528</v>
       </c>
       <c r="G53">
-        <v>0.99035355129721336</v>
+        <v>0.9903535512972134</v>
       </c>
       <c r="H53">
-        <v>0.97042191088962615</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9704219108896261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9179947756156263</v>
+      </c>
+      <c r="C54">
         <v>1.01758024691358</v>
       </c>
-      <c r="C54">
-        <v>0.91799477561562626</v>
-      </c>
       <c r="D54">
-        <v>0.96924603174603163</v>
+        <v>0.8846764463072332</v>
       </c>
       <c r="E54">
-        <v>0.88467644630723319</v>
+        <v>0.9692107288767837</v>
       </c>
       <c r="F54">
-        <v>0.9493152444466777</v>
+        <v>0.9458301186200859</v>
       </c>
       <c r="G54">
         <v>0.9767649687220733</v>
       </c>
       <c r="H54">
-        <v>0.96123032876696557</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9612303287669656</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="2">
         <v>44279</v>
       </c>
       <c r="B55">
-        <v>0.97728395061728401</v>
+        <v>0.9127410407678084</v>
       </c>
       <c r="C55">
-        <v>0.91274104076780838</v>
+        <v>0.977283950617284</v>
       </c>
       <c r="D55">
-        <v>0.95436507936507919</v>
+        <v>0.8727376643170128</v>
       </c>
       <c r="E55">
-        <v>0.87273766431701283</v>
+        <v>0.9543489845461542</v>
       </c>
       <c r="F55">
-        <v>0.92835248225641731</v>
+        <v>0.9305206852254448</v>
       </c>
       <c r="G55">
-        <v>0.96472968112691637</v>
+        <v>0.9647296811269164</v>
       </c>
       <c r="H55">
-        <v>0.94577158438697517</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9457715843869752</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="2">
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9112441665932904</v>
+      </c>
+      <c r="C56">
         <v>0.9830123456790123</v>
       </c>
-      <c r="C56">
-        <v>0.91124416659329044</v>
-      </c>
       <c r="D56">
-        <v>0.95337301587301571</v>
+        <v>0.8809932050549311</v>
       </c>
       <c r="E56">
-        <v>0.88099320505493106</v>
+        <v>0.9533424122209723</v>
       </c>
       <c r="F56">
-        <v>0.93261379030593194</v>
+        <v>0.9319869285457403</v>
       </c>
       <c r="G56">
-        <v>0.96706512059631455</v>
+        <v>0.9670651205963146</v>
       </c>
       <c r="H56">
-        <v>0.94532255928954256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9453225592895426</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="2">
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.930615479439993</v>
+      </c>
+      <c r="C57">
         <v>1.015012345679013</v>
       </c>
-      <c r="C57">
-        <v>0.93061547943999301</v>
-      </c>
       <c r="D57">
-        <v>0.96825396825396814</v>
+        <v>0.9072204229377024</v>
       </c>
       <c r="E57">
-        <v>0.90722042293770244</v>
+        <v>0.968263366688377</v>
       </c>
       <c r="F57">
-        <v>0.95780039596980981</v>
+        <v>0.9531045808385201</v>
       </c>
       <c r="G57">
         <v>0.9818881721848689</v>
       </c>
       <c r="H57">
-        <v>0.96674527804056187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9667452780405619</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2">
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.9376889436764404</v>
+      </c>
+      <c r="C58">
         <v>1.011950617283951</v>
       </c>
-      <c r="C58">
-        <v>0.9376889436764404</v>
-      </c>
       <c r="D58">
-        <v>0.96428571428571419</v>
+        <v>0.9053152981520289</v>
       </c>
       <c r="E58">
-        <v>0.90531529815202894</v>
+        <v>0.9642962875244242</v>
       </c>
       <c r="F58">
-        <v>0.95664307683046834</v>
+        <v>0.9533808917799864</v>
       </c>
       <c r="G58">
-        <v>0.98238290213299284</v>
+        <v>0.9823829021329928</v>
       </c>
       <c r="H58">
         <v>0.9684511896286716</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="2">
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.9466408382495377</v>
+      </c>
+      <c r="C59">
         <v>1.025185185185185</v>
       </c>
-      <c r="C59">
-        <v>0.94664083824953771</v>
-      </c>
       <c r="D59">
-        <v>0.96428571428571419</v>
+        <v>0.9175080967803392</v>
       </c>
       <c r="E59">
-        <v>0.91750809678033918</v>
+        <v>0.9642962875244242</v>
       </c>
       <c r="F59">
-        <v>0.96664351606879151</v>
+        <v>0.9606200514122144</v>
       </c>
       <c r="G59">
-        <v>0.98637529428579052</v>
+        <v>0.9863752942857905</v>
       </c>
       <c r="H59">
-        <v>0.97763317719796816</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9776331771979682</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="2">
         <v>44286</v>
       </c>
       <c r="B60">
-        <v>1.0020740740740739</v>
+        <v>0.9374541398843592</v>
       </c>
       <c r="C60">
-        <v>0.93745413988435922</v>
+        <v>1.002074074074074</v>
       </c>
       <c r="D60">
-        <v>0.95734126984126977</v>
+        <v>0.9141423763256493</v>
       </c>
       <c r="E60">
-        <v>0.91414237632564932</v>
+        <v>0.957309491384925</v>
       </c>
       <c r="F60">
-        <v>0.95501341197737832</v>
+        <v>0.9508222540336618</v>
       </c>
       <c r="G60">
-        <v>0.98224626243303481</v>
+        <v>0.9822462624330348</v>
       </c>
       <c r="H60">
-        <v>0.96873518840824435</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9687351884082444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="2">
         <v>44287</v>
       </c>
       <c r="B61">
-        <v>1.0104691358024691</v>
+        <v>0.9519532740453759</v>
       </c>
       <c r="C61">
-        <v>0.95195327404537589</v>
+        <v>1.010469135802469</v>
       </c>
       <c r="D61">
-        <v>0.9632936507936507</v>
+        <v>0.929954912046739</v>
       </c>
       <c r="E61">
-        <v>0.92995491204673897</v>
+        <v>0.9632897151992421</v>
       </c>
       <c r="F61">
-        <v>0.9664603697467028</v>
+        <v>0.9617196870862971</v>
       </c>
       <c r="G61">
-        <v>0.99129118234175317</v>
+        <v>0.9912911823417532</v>
       </c>
       <c r="H61">
-        <v>0.98071302882779499</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.980713028827795</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="2">
         <v>44288</v>
       </c>
       <c r="B62">
-        <v>1.0186666666666671</v>
+        <v>0.9774294854861907</v>
       </c>
       <c r="C62">
-        <v>0.97742948548619069</v>
+        <v>1.018666666666667</v>
       </c>
       <c r="D62">
-        <v>0.95932539682539664</v>
+        <v>0.9385914777417921</v>
       </c>
       <c r="E62">
-        <v>0.93859147774179208</v>
+        <v>0.9593226360352892</v>
       </c>
       <c r="F62">
-        <v>0.9756464099028701</v>
+        <v>0.971850088784346</v>
       </c>
       <c r="G62">
-        <v>0.99363918638126247</v>
+        <v>0.9936391863812625</v>
       </c>
       <c r="H62">
-        <v>0.99045725722421907</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9904572572242191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="2">
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>0.969358105133398</v>
+      </c>
+      <c r="C63">
         <v>1.024</v>
       </c>
-      <c r="C63">
-        <v>0.96935810513339804</v>
-      </c>
       <c r="D63">
-        <v>0.95734126984126977</v>
+        <v>0.9338286657776084</v>
       </c>
       <c r="E63">
-        <v>0.93382866577760837</v>
+        <v>0.957309491384925</v>
       </c>
       <c r="F63">
-        <v>0.97422885657743097</v>
+        <v>0.9685356177556861</v>
       </c>
       <c r="G63">
-        <v>0.99622905839541032</v>
+        <v>0.9962290583954103</v>
       </c>
       <c r="H63">
-        <v>0.98638532877656016</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9863853287765602</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="2">
         <v>44293</v>
       </c>
       <c r="B64">
-        <v>1.0356543209876541</v>
+        <v>0.9474920019958324</v>
       </c>
       <c r="C64">
-        <v>0.94749200199583239</v>
+        <v>1.035654320987654</v>
       </c>
       <c r="D64">
-        <v>0.94146825396825384</v>
+        <v>0.9317330285133677</v>
       </c>
       <c r="E64">
-        <v>0.9317330285133677</v>
+        <v>0.9414411747291136</v>
       </c>
       <c r="F64">
-        <v>0.97127281077928806</v>
+        <v>0.9574417810068592</v>
       </c>
       <c r="G64">
-        <v>0.99701120288482536</v>
+        <v>0.9970112028848254</v>
       </c>
       <c r="H64">
-        <v>0.97936211571415133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9793621157141513</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="2">
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.9584984297496405</v>
+      </c>
+      <c r="C65">
         <v>1.048098765432099</v>
       </c>
-      <c r="C65">
-        <v>0.9584984297496405</v>
-      </c>
       <c r="D65">
-        <v>0.9464285714285714</v>
+        <v>0.937448402870388</v>
       </c>
       <c r="E65">
-        <v>0.937448402870388</v>
+        <v>0.9464148262182486</v>
       </c>
       <c r="F65">
-        <v>0.9800245083885466</v>
+        <v>0.9658216415368102</v>
       </c>
       <c r="G65">
-        <v>0.99837288817061431</v>
+        <v>0.9983728881706143</v>
       </c>
       <c r="H65">
-        <v>0.98098743305400393</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9809874330540039</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="2">
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.9408000939215169</v>
+      </c>
+      <c r="C66">
         <v>1.045728395061728</v>
       </c>
-      <c r="C66">
-        <v>0.94080009392151687</v>
-      </c>
       <c r="D66">
-        <v>0.93353174603174582</v>
+        <v>0.9271607290277513</v>
       </c>
       <c r="E66">
-        <v>0.92716072902775126</v>
+        <v>0.9335070164012078</v>
       </c>
       <c r="F66">
-        <v>0.97077544849243402</v>
+        <v>0.9534560528204785</v>
       </c>
       <c r="G66">
-        <v>0.99499458938199592</v>
+        <v>0.9949945893819959</v>
       </c>
       <c r="H66">
-        <v>0.96623676671227277</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9662367667122728</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="2">
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9315840450823281</v>
+      </c>
+      <c r="C67">
         <v>1.004543209876543</v>
       </c>
-      <c r="C67">
-        <v>0.93158404508232806</v>
-      </c>
       <c r="D67">
-        <v>0.92757936507936511</v>
+        <v>0.9088715310852861</v>
       </c>
       <c r="E67">
-        <v>0.90887153108528607</v>
+        <v>0.9275860027236662</v>
       </c>
       <c r="F67">
-        <v>0.94823425929284855</v>
+        <v>0.9385553884855032</v>
       </c>
       <c r="G67">
-        <v>0.97790363288839055</v>
+        <v>0.9779036328883906</v>
       </c>
       <c r="H67">
-        <v>0.94942902812931151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9494290281293115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="2">
         <v>44299</v>
       </c>
       <c r="B68">
-        <v>0.99782716049382714</v>
+        <v>0.939684775909131</v>
       </c>
       <c r="C68">
-        <v>0.93968477590913102</v>
+        <v>0.9978271604938271</v>
       </c>
       <c r="D68">
-        <v>0.92261904761904756</v>
+        <v>0.9131898139328126</v>
       </c>
       <c r="E68">
-        <v>0.91318981393281262</v>
+        <v>0.9226123512345313</v>
       </c>
       <c r="F68">
-        <v>0.94789400404787894</v>
+        <v>0.9392727004968955</v>
       </c>
       <c r="G68">
-        <v>0.97529020230528451</v>
+        <v>0.9752902023052845</v>
       </c>
       <c r="H68">
-        <v>0.94787279157367954</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9478727915736795</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="2">
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.9444982536467964</v>
+      </c>
+      <c r="C69">
         <v>1.020246913580247</v>
       </c>
-      <c r="C69">
-        <v>0.9444982536467964</v>
-      </c>
       <c r="D69">
-        <v>0.92361111111111105</v>
+        <v>0.9218898837873881</v>
       </c>
       <c r="E69">
-        <v>0.92188988378738812</v>
+        <v>0.9236189235597134</v>
       </c>
       <c r="F69">
-        <v>0.95934565745217681</v>
+        <v>0.9463762225802761</v>
       </c>
       <c r="G69">
-        <v>0.98588056433766658</v>
+        <v>0.9858805643376666</v>
       </c>
       <c r="H69">
         <v>0.9557384064214427</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="2">
         <v>44301</v>
       </c>
       <c r="B70">
-        <v>1.0353580246913581</v>
+        <v>0.9376889436764404</v>
       </c>
       <c r="C70">
-        <v>0.9376889436764404</v>
+        <v>1.035358024691358</v>
       </c>
       <c r="D70">
-        <v>0.9107142857142857</v>
+        <v>0.9147774179208737</v>
       </c>
       <c r="E70">
-        <v>0.91477741792087375</v>
+        <v>0.9107111137426728</v>
       </c>
       <c r="F70">
-        <v>0.95888480915841989</v>
+        <v>0.94112125641609</v>
       </c>
       <c r="G70">
-        <v>0.98576277149287517</v>
+        <v>0.9857627714928752</v>
       </c>
       <c r="H70">
         <v>0.9496631352313919</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="2">
         <v>44302</v>
       </c>
       <c r="B71">
-        <v>1.0298271604938269</v>
+        <v>0.9434709870564411</v>
       </c>
       <c r="C71">
-        <v>0.94347098705644106</v>
+        <v>1.029827160493827</v>
       </c>
       <c r="D71">
-        <v>0.92063492063492069</v>
+        <v>0.9149044262399187</v>
       </c>
       <c r="E71">
-        <v>0.91490442623991874</v>
+        <v>0.9205992065841672</v>
       </c>
       <c r="F71">
-        <v>0.95963716999614912</v>
+        <v>0.9454585855830333</v>
       </c>
       <c r="G71">
-        <v>0.99567778788178629</v>
+        <v>0.9956777878817863</v>
       </c>
       <c r="H71">
-        <v>0.95296558049926228</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9529655804992623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="2">
         <v>44305</v>
       </c>
       <c r="B72">
-        <v>1.0666666666666671</v>
+        <v>0.9591734906518741</v>
       </c>
       <c r="C72">
-        <v>0.95917349065187407</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="D72">
-        <v>0.93154761904761896</v>
+        <v>0.949895218136788</v>
       </c>
       <c r="E72">
-        <v>0.94989521813678801</v>
+        <v>0.9315530818876191</v>
       </c>
       <c r="F72">
-        <v>0.98810107175222317</v>
+        <v>0.9662642148371217</v>
       </c>
       <c r="G72">
-        <v>1.0091328718994961</v>
+        <v>1.009132871899496</v>
       </c>
       <c r="H72">
-        <v>0.97615369706924782</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9761536970692478</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="2">
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>0.9685362918611137</v>
+      </c>
+      <c r="C73">
         <v>1.057086419753086</v>
       </c>
-      <c r="C73">
-        <v>0.96853629186111367</v>
-      </c>
       <c r="D73">
-        <v>0.92658730158730163</v>
+        <v>0.9451959103321267</v>
       </c>
       <c r="E73">
-        <v>0.94519591033212669</v>
+        <v>0.9265794303984841</v>
       </c>
       <c r="F73">
-        <v>0.98401942604463977</v>
+        <v>0.9654501357283387</v>
       </c>
       <c r="G73">
-        <v>1.0096480192740509</v>
+        <v>1.009648019274051</v>
       </c>
       <c r="H73">
-        <v>0.97545329467367958</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9754532946736796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="2">
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>0.9749933961433477</v>
+      </c>
+      <c r="C74">
         <v>1.049876543209876</v>
       </c>
-      <c r="C74">
-        <v>0.97499339614334768</v>
-      </c>
       <c r="D74">
-        <v>0.92658730158730163</v>
+        <v>0.9523083761986411</v>
       </c>
       <c r="E74">
-        <v>0.95230837619864106</v>
+        <v>0.9265794303984841</v>
       </c>
       <c r="F74">
-        <v>0.98498060396246667</v>
+        <v>0.9676294784226434</v>
       </c>
       <c r="G74">
-        <v>1.0083475862675531</v>
+        <v>1.008347586267553</v>
       </c>
       <c r="H74">
-        <v>0.97840266037775669</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9784026603777567</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="2">
         <v>44308</v>
       </c>
       <c r="B75">
-        <v>1.0540246913580249</v>
+        <v>0.97349652196883</v>
       </c>
       <c r="C75">
-        <v>0.97349652196882996</v>
+        <v>1.054024691358025</v>
       </c>
       <c r="D75">
-        <v>0.92757936507936511</v>
+        <v>0.9584047755127961</v>
       </c>
       <c r="E75">
-        <v>0.95840477551279613</v>
+        <v>0.9275860027236662</v>
       </c>
       <c r="F75">
-        <v>0.98831949234390337</v>
+        <v>0.9691430604018976</v>
       </c>
       <c r="G75">
-        <v>1.0123069964238089</v>
+        <v>1.012306996423809</v>
       </c>
       <c r="H75">
-        <v>0.97657969523860688</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9765796952386069</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="2">
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>0.9871151419095419</v>
+      </c>
+      <c r="C76">
         <v>1.065086419753086</v>
       </c>
-      <c r="C76">
-        <v>0.98711514190954186</v>
-      </c>
       <c r="D76">
-        <v>0.92956349206349198</v>
+        <v>0.9651997205816981</v>
       </c>
       <c r="E76">
-        <v>0.96519972058169812</v>
+        <v>0.929539937237255</v>
       </c>
       <c r="F76">
-        <v>0.99689726511356047</v>
+        <v>0.9773645406927779</v>
       </c>
       <c r="G76">
-        <v>1.0150225141390681</v>
+        <v>1.015022514139068</v>
       </c>
       <c r="H76">
-        <v>0.98544698145756615</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9854469814575662</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="2">
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>0.968418889965073</v>
+      </c>
+      <c r="C77">
         <v>1.072987654320988</v>
       </c>
-      <c r="C77">
-        <v>0.96841888996507297</v>
-      </c>
       <c r="D77">
-        <v>0.9107142857142857</v>
+        <v>0.961643487648441</v>
       </c>
       <c r="E77">
-        <v>0.96164348764844099</v>
+        <v>0.9107111137426728</v>
       </c>
       <c r="F77">
-        <v>0.99221512738021556</v>
+        <v>0.9655112285481626</v>
       </c>
       <c r="G77">
         <v>1.011864095327393</v>
       </c>
       <c r="H77">
-        <v>0.97427700243125981</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9742770024312598</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="2">
         <v>44313</v>
       </c>
       <c r="B78">
-        <v>1.0752592592592589</v>
+        <v>0.9759326113116727</v>
       </c>
       <c r="C78">
-        <v>0.97593261131167275</v>
+        <v>1.075259259259259</v>
       </c>
       <c r="D78">
-        <v>0.92063492063492069</v>
+        <v>0.9658982663364449</v>
       </c>
       <c r="E78">
-        <v>0.96589826633644493</v>
+        <v>0.9205992065841672</v>
       </c>
       <c r="F78">
-        <v>0.99726821881036298</v>
+        <v>0.9724058177420352</v>
       </c>
       <c r="G78">
-        <v>1.0124342126961841</v>
+        <v>1.012434212696184</v>
       </c>
       <c r="H78">
-        <v>0.97682531580472409</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9768253158047241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="2">
         <v>44314</v>
       </c>
       <c r="B79">
-        <v>1.0756543209876539</v>
+        <v>0.9839746411904553</v>
       </c>
       <c r="C79">
-        <v>0.9839746411904553</v>
+        <v>1.075654320987654</v>
       </c>
       <c r="D79">
-        <v>0.92361111111111105</v>
+        <v>0.9707880866196735</v>
       </c>
       <c r="E79">
-        <v>0.97078808661967353</v>
+        <v>0.9236189235597134</v>
       </c>
       <c r="F79">
-        <v>1.000834186850053</v>
+        <v>0.9770086200346694</v>
       </c>
       <c r="G79">
         <v>1.019259915409032</v>
       </c>
       <c r="H79">
-        <v>0.98233642725697468</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9823364272569747</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="2">
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>0.9995010419418274</v>
+      </c>
+      <c r="C80">
         <v>1.085530864197531</v>
       </c>
-      <c r="C80">
-        <v>0.99950104194182743</v>
-      </c>
       <c r="D80">
-        <v>0.9365079365079364</v>
+        <v>0.9716771448529878</v>
       </c>
       <c r="E80">
-        <v>0.97167714485298784</v>
+        <v>0.9364675232399786</v>
       </c>
       <c r="F80">
-        <v>1.009175433072858</v>
+        <v>0.9883039584227499</v>
       </c>
       <c r="G80">
         <v>1.019603870515823</v>
       </c>
       <c r="H80">
-        <v>0.99095809290981696</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.990958092909817</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="2">
         <v>44316</v>
       </c>
       <c r="B81">
-        <v>1.0833580246913579</v>
+        <v>0.992251474861319</v>
       </c>
       <c r="C81">
-        <v>0.99225147486131904</v>
+        <v>1.083358024691358</v>
       </c>
       <c r="D81">
-        <v>0.92361111111111105</v>
+        <v>0.9751698736267226</v>
       </c>
       <c r="E81">
-        <v>0.97516987362672258</v>
+        <v>0.9236189235597134</v>
       </c>
       <c r="F81">
-        <v>1.006265113377331</v>
+        <v>0.9818168494500372</v>
       </c>
       <c r="G81">
-        <v>1.0186269751896859</v>
+        <v>1.018626975189686</v>
       </c>
       <c r="H81">
-        <v>0.98315196429291019</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9831519642929102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="2">
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>0.9657186463561387</v>
+      </c>
+      <c r="C82">
         <v>1.109135802469136</v>
       </c>
-      <c r="C82">
-        <v>0.96571864635613869</v>
-      </c>
       <c r="D82">
-        <v>0.9196428571428571</v>
+        <v>0.9519908554010288</v>
       </c>
       <c r="E82">
-        <v>0.95199085540102879</v>
+        <v>0.9196518443957604</v>
       </c>
       <c r="F82">
-        <v>1.0023478031991799</v>
+        <v>0.9719153469602653</v>
       </c>
       <c r="G82">
-        <v>1.0191986631297401</v>
+        <v>1.01919866312974</v>
       </c>
       <c r="H82">
-        <v>0.97118371842672346</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9711837184267235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="2">
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>0.953127293005782</v>
+      </c>
+      <c r="C83">
         <v>1.136987654320988</v>
       </c>
-      <c r="C83">
-        <v>0.95312729300578203</v>
-      </c>
       <c r="D83">
-        <v>0.91468253968253965</v>
+        <v>0.9203657839588494</v>
       </c>
       <c r="E83">
-        <v>0.92036578395884938</v>
+        <v>0.9146781929066256</v>
       </c>
       <c r="F83">
-        <v>0.99848513356912916</v>
+        <v>0.9653704005973255</v>
       </c>
       <c r="G83">
-        <v>1.0121452275836289</v>
+        <v>1.012145227583629</v>
       </c>
       <c r="H83">
-        <v>0.95869736667888372</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9586973666788837</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="2">
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>0.9364268732940038</v>
+      </c>
+      <c r="C84">
         <v>1.191012345679012</v>
       </c>
-      <c r="C84">
-        <v>0.93642687329400376</v>
-      </c>
       <c r="D84">
-        <v>0.91567460317460325</v>
+        <v>0.9208738172350288</v>
       </c>
       <c r="E84">
-        <v>0.92087381723502881</v>
+        <v>0.9156847652318076</v>
       </c>
       <c r="F84">
-        <v>1.0144293008357439</v>
+        <v>0.9690223263272746</v>
       </c>
       <c r="G84">
-        <v>1.0171003799211891</v>
+        <v>1.017100379921189</v>
       </c>
       <c r="H84">
-        <v>0.95800080210466121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9580008021046612</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="2">
         <v>44327</v>
       </c>
       <c r="B85">
-        <v>1.1442962962962959</v>
+        <v>0.9588212849637522</v>
       </c>
       <c r="C85">
-        <v>0.95882128496375219</v>
+        <v>1.144296296296296</v>
       </c>
       <c r="D85">
-        <v>0.91865079365079361</v>
+        <v>0.9331301200228616</v>
       </c>
       <c r="E85">
-        <v>0.93313012002286155</v>
+        <v>0.9186452720705786</v>
       </c>
       <c r="F85">
-        <v>1.006776573319685</v>
+        <v>0.9719275353636279</v>
       </c>
       <c r="G85">
-        <v>1.0139670902497371</v>
+        <v>1.013967090249737</v>
       </c>
       <c r="H85">
-        <v>0.96388034440608761</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9638803444060876</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="2">
         <v>44328</v>
       </c>
       <c r="B86">
-        <v>1.1494320987654321</v>
+        <v>0.9696516098734995</v>
       </c>
       <c r="C86">
-        <v>0.96965160987349952</v>
+        <v>1.149432098765432</v>
       </c>
       <c r="D86">
-        <v>0.91666666666666663</v>
+        <v>0.9377024195084778</v>
       </c>
       <c r="E86">
-        <v>0.93770241950847777</v>
+        <v>0.9166321274202143</v>
       </c>
       <c r="F86">
-        <v>1.0114912276471719</v>
+        <v>0.9765473449208557</v>
       </c>
       <c r="G86">
         <v>1.022763859898761</v>
       </c>
       <c r="H86">
-        <v>0.96800408344191169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9680040834419117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="2">
         <v>44329</v>
       </c>
       <c r="B87">
-        <v>1.0951111111111109</v>
+        <v>0.9675677262187785</v>
       </c>
       <c r="C87">
-        <v>0.96756772621877851</v>
+        <v>1.095111111111111</v>
       </c>
       <c r="D87">
-        <v>0.90873015873015872</v>
+        <v>0.929954912046739</v>
       </c>
       <c r="E87">
-        <v>0.92995491204673897</v>
+        <v>0.9086979690923085</v>
       </c>
       <c r="F87">
-        <v>0.98881204976977632</v>
+        <v>0.9629792505358918</v>
       </c>
       <c r="G87">
-        <v>1.0112955485298669</v>
+        <v>1.011295548529867</v>
       </c>
       <c r="H87">
-        <v>0.95810634219166468</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9581063421916647</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="2">
         <v>44330</v>
       </c>
       <c r="B88">
-        <v>1.1002469135802471</v>
+        <v>0.9831821783921811</v>
       </c>
       <c r="C88">
-        <v>0.98318217839218114</v>
+        <v>1.100246913580247</v>
       </c>
       <c r="D88">
-        <v>0.9464285714285714</v>
+        <v>0.9489426557439512</v>
       </c>
       <c r="E88">
-        <v>0.9489426557439512</v>
+        <v>0.9464148262182486</v>
       </c>
       <c r="F88">
-        <v>1.0056208007332119</v>
+        <v>0.9847151122438564</v>
       </c>
       <c r="G88">
-        <v>1.0249233953866039</v>
+        <v>1.024923395386604</v>
       </c>
       <c r="H88">
-        <v>0.98067656952501203</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.980676569525012</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="2">
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.003169851193097</v>
+      </c>
+      <c r="C89">
         <v>1.13037037037037</v>
       </c>
-      <c r="C89">
-        <v>1.0031698511930971</v>
-      </c>
       <c r="D89">
-        <v>0.94047619047619035</v>
+        <v>0.9645011748269511</v>
       </c>
       <c r="E89">
-        <v>0.96450117482695108</v>
+        <v>0.940493812540707</v>
       </c>
       <c r="F89">
-        <v>1.023312910494252</v>
+        <v>0.9970945125016444</v>
       </c>
       <c r="G89">
-        <v>1.0331437653817821</v>
+        <v>1.033143765381782</v>
       </c>
       <c r="H89">
-        <v>0.99495326493056413</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9949532649305641</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="2">
         <v>44334</v>
       </c>
       <c r="B90">
-        <v>1.1440987654320991</v>
+        <v>1.001203369434416</v>
       </c>
       <c r="C90">
-        <v>1.001203369434416</v>
+        <v>1.144098765432099</v>
       </c>
       <c r="D90">
-        <v>0.94940476190476175</v>
+        <v>0.9595478503842001</v>
       </c>
       <c r="E90">
-        <v>0.9595478503842001</v>
+        <v>0.9493753330570193</v>
       </c>
       <c r="F90">
-        <v>1.0274947125446641</v>
+        <v>1.000804697126207</v>
       </c>
       <c r="G90">
-        <v>1.0365142113140811</v>
+        <v>1.036514211314081</v>
       </c>
       <c r="H90">
-        <v>0.99545410061616224</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9954541006161622</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="2">
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>0.9963018402747205</v>
+      </c>
+      <c r="C91">
         <v>1.150123456790124</v>
       </c>
-      <c r="C91">
-        <v>0.99630184027472046</v>
-      </c>
       <c r="D91">
-        <v>0.9365079365079364</v>
+        <v>0.963358099955547</v>
       </c>
       <c r="E91">
-        <v>0.963358099955547</v>
+        <v>0.9364675232399786</v>
       </c>
       <c r="F91">
-        <v>1.027863761463111</v>
+        <v>0.9965013652256336</v>
       </c>
       <c r="G91">
         <v>1.034125372421711</v>
       </c>
       <c r="H91">
-        <v>0.99251241055477635</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9925124105547763</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="2">
         <v>44336</v>
       </c>
       <c r="B92">
-        <v>1.1170370370370371</v>
+        <v>1.007044113762437</v>
       </c>
       <c r="C92">
-        <v>1.0070441137624371</v>
+        <v>1.117037037037037</v>
       </c>
       <c r="D92">
-        <v>0.94841269841269826</v>
+        <v>0.9676763828030737</v>
       </c>
       <c r="E92">
-        <v>0.96767638280307366</v>
+        <v>0.9484279708686126</v>
       </c>
       <c r="F92">
-        <v>1.021776172926504</v>
+        <v>0.9993539433394891</v>
       </c>
       <c r="G92">
-        <v>1.0285215741521661</v>
+        <v>1.028521574152166</v>
       </c>
       <c r="H92">
-        <v>0.99522575024610027</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9952257502461003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="2">
         <v>44337</v>
       </c>
       <c r="B93">
-        <v>1.1230617283950619</v>
+        <v>0.9989433829356346</v>
       </c>
       <c r="C93">
-        <v>0.99894338293563456</v>
+        <v>1.123061728395062</v>
       </c>
       <c r="D93">
-        <v>0.93353174603174582</v>
+        <v>0.9571346923223472</v>
       </c>
       <c r="E93">
-        <v>0.95713469232234716</v>
+        <v>0.9335070164012078</v>
       </c>
       <c r="F93">
-        <v>1.0165538324003129</v>
+        <v>0.9909304750288869</v>
       </c>
       <c r="G93">
         <v>1.025246933066964</v>
       </c>
       <c r="H93">
-        <v>0.98519752307010355</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9851975230701036</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="2">
         <v>44340</v>
       </c>
       <c r="B94">
-        <v>1.1153580246913579</v>
+        <v>1.006339702386194</v>
       </c>
       <c r="C94">
-        <v>1.006339702386194</v>
+        <v>1.115358024691358</v>
       </c>
       <c r="D94">
-        <v>0.93452380952380942</v>
+        <v>0.9643741665079062</v>
       </c>
       <c r="E94">
-        <v>0.96437416650790619</v>
+        <v>0.9345135887263899</v>
       </c>
       <c r="F94">
-        <v>1.0177076828078211</v>
+        <v>0.9937007946388932</v>
       </c>
       <c r="G94">
-        <v>1.0278006819420431</v>
+        <v>1.027800681942043</v>
       </c>
       <c r="H94">
-        <v>0.98931166755256383</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9893116675525638</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="2">
         <v>44341</v>
       </c>
       <c r="B95">
-        <v>1.1243456790123461</v>
+        <v>1.037363153414928</v>
       </c>
       <c r="C95">
-        <v>1.0373631534149279</v>
+        <v>1.124345679012346</v>
       </c>
       <c r="D95">
-        <v>0.97123015873015872</v>
+        <v>0.9915539467835143</v>
       </c>
       <c r="E95">
-        <v>0.99155394678351427</v>
+        <v>0.9712238735271479</v>
       </c>
       <c r="F95">
-        <v>1.0409082298066969</v>
+        <v>1.022330788681351</v>
       </c>
       <c r="G95">
         <v>1.0396663478407</v>
@@ -3449,102 +3436,102 @@
         <v>1.020568803501628</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="2">
         <v>44342</v>
       </c>
       <c r="B96">
-        <v>1.1341234567901231</v>
+        <v>1.032314871885181</v>
       </c>
       <c r="C96">
-        <v>1.0323148718851809</v>
+        <v>1.134123456790123</v>
       </c>
       <c r="D96">
-        <v>0.97420634920634908</v>
+        <v>0.9855845557884042</v>
       </c>
       <c r="E96">
-        <v>0.9855845557884042</v>
+        <v>0.9741843803659186</v>
       </c>
       <c r="F96">
-        <v>1.0419208801989179</v>
+        <v>1.022219724037172</v>
       </c>
       <c r="G96">
         <v>1.041007615700059</v>
       </c>
       <c r="H96">
-        <v>1.0209736936535869</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.020973693653587</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="2">
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.033518241319597</v>
+      </c>
+      <c r="C97">
         <v>1.134320987654321</v>
       </c>
-      <c r="C97">
-        <v>1.0335182413195969</v>
-      </c>
       <c r="D97">
-        <v>0.97123015873015872</v>
+        <v>0.9947926589191592</v>
       </c>
       <c r="E97">
-        <v>0.99479265891915925</v>
+        <v>0.9712238735271479</v>
       </c>
       <c r="F97">
-        <v>1.044734199254002</v>
+        <v>1.023203831997246</v>
       </c>
       <c r="G97">
         <v>1.049991283329486</v>
       </c>
       <c r="H97">
-        <v>1.0243586520803869</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.024358652080387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="2">
         <v>44344</v>
       </c>
       <c r="B98">
-        <v>1.1509135802469139</v>
+        <v>1.026855683719292</v>
       </c>
       <c r="C98">
-        <v>1.0268556837192919</v>
+        <v>1.150913580246914</v>
       </c>
       <c r="D98">
-        <v>0.97420634920634908</v>
+        <v>0.9874896805740776</v>
       </c>
       <c r="E98">
-        <v>0.9874896805740776</v>
+        <v>0.9741843803659186</v>
       </c>
       <c r="F98">
-        <v>1.0473574473061269</v>
+        <v>1.023448316020776</v>
       </c>
       <c r="G98">
-        <v>1.0472836184705461</v>
+        <v>1.047283618470546</v>
       </c>
       <c r="H98">
         <v>1.021069639187226</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="2">
         <v>44347</v>
       </c>
       <c r="B99">
-        <v>1.1814320987654321</v>
+        <v>1.027530744621526</v>
       </c>
       <c r="C99">
-        <v>1.027530744621526</v>
+        <v>1.181432098765432</v>
       </c>
       <c r="D99">
-        <v>0.96230158730158721</v>
+        <v>0.9957452213119959</v>
       </c>
       <c r="E99">
-        <v>0.99574522131199594</v>
+        <v>0.96228314287406</v>
       </c>
       <c r="F99">
-        <v>1.0586051713805189</v>
+        <v>1.026148148132534</v>
       </c>
       <c r="G99">
         <v>1.0568358328975</v>
@@ -3553,518 +3540,748 @@
         <v>1.023080657572309</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="2">
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.03401719937777</v>
+      </c>
+      <c r="C100">
         <v>1.183111111111111</v>
       </c>
-      <c r="C100">
-        <v>1.03401719937777</v>
-      </c>
       <c r="D100">
-        <v>0.94742063492063477</v>
+        <v>0.9998729916809551</v>
       </c>
       <c r="E100">
-        <v>0.99987299168095511</v>
+        <v>0.9474213985434307</v>
       </c>
       <c r="F100">
-        <v>1.05915310769173</v>
+        <v>1.024407286268465</v>
       </c>
       <c r="G100">
         <v>1.058527338148705</v>
       </c>
       <c r="H100">
-        <v>1.0250206762624989</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.025020676262499</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="2">
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.025564262862845</v>
+      </c>
+      <c r="C101">
         <v>1.166716049382716</v>
       </c>
-      <c r="C101">
-        <v>1.025564262862845</v>
-      </c>
       <c r="D101">
-        <v>0.94742063492063477</v>
+        <v>0.982599860290849</v>
       </c>
       <c r="E101">
-        <v>0.982599860290849</v>
+        <v>0.9474213985434307</v>
       </c>
       <c r="F101">
-        <v>1.0464839188203781</v>
+        <v>1.015978035988838</v>
       </c>
       <c r="G101">
-        <v>1.0493661959664591</v>
+        <v>1.049366195966459</v>
       </c>
       <c r="H101">
-        <v>1.0150979891735059</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.015097989173506</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="2">
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.027560095095536</v>
+      </c>
+      <c r="C102">
         <v>1.167012345679012</v>
       </c>
-      <c r="C102">
-        <v>1.0275600950955359</v>
-      </c>
       <c r="D102">
-        <v>0.93948412698412698</v>
+        <v>0.9737092779577063</v>
       </c>
       <c r="E102">
-        <v>0.97370927795770634</v>
+        <v>0.9394872402155249</v>
       </c>
       <c r="F102">
-        <v>1.042670555900052</v>
+        <v>1.012620289503664</v>
       </c>
       <c r="G102">
-        <v>1.0472145133349351</v>
+        <v>1.047214513334935</v>
       </c>
       <c r="H102">
-        <v>1.0084432069602729</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.008443206960273</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="2">
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.036482639194623</v>
+      </c>
+      <c r="C103">
         <v>1.163654320987654</v>
       </c>
-      <c r="C103">
-        <v>1.0364826391946229</v>
-      </c>
       <c r="D103">
-        <v>0.95039682539682535</v>
+        <v>0.9787261065599796</v>
       </c>
       <c r="E103">
-        <v>0.9787261065599796</v>
+        <v>0.9503819053822014</v>
       </c>
       <c r="F103">
-        <v>1.046457195958185</v>
+        <v>1.019522896647658</v>
       </c>
       <c r="G103">
-        <v>1.0511927703463579</v>
+        <v>1.051192770346358</v>
       </c>
       <c r="H103">
         <v>1.013622346866131</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="2">
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.03210941856711</v>
+      </c>
+      <c r="C104">
         <v>1.158617283950617</v>
       </c>
-      <c r="C104">
-        <v>1.03210941856711</v>
-      </c>
       <c r="D104">
-        <v>0.9464285714285714</v>
+        <v>0.9841239601193879</v>
       </c>
       <c r="E104">
-        <v>0.98412396011938785</v>
+        <v>0.9464148262182486</v>
       </c>
       <c r="F104">
-        <v>1.0451495517318949</v>
+        <v>1.01678640023639</v>
       </c>
       <c r="G104">
         <v>1.055659475020849</v>
       </c>
       <c r="H104">
-        <v>1.0127300534032839</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.012730053403284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="2">
         <v>44355</v>
       </c>
       <c r="B105">
-        <v>1.1333333333333331</v>
+        <v>1.001350121804467</v>
       </c>
       <c r="C105">
-        <v>1.0013501218044669</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="D105">
-        <v>0.94841269841269826</v>
+        <v>0.9789801231980695</v>
       </c>
       <c r="E105">
-        <v>0.97898012319806949</v>
+        <v>0.9484279708686126</v>
       </c>
       <c r="F105">
-        <v>1.030107639324529</v>
+        <v>1.001971992127842</v>
       </c>
       <c r="G105">
-        <v>1.0498577847720549</v>
+        <v>1.049857784772055</v>
       </c>
       <c r="H105">
         <v>1.00399709093142</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="2">
         <v>44356</v>
       </c>
       <c r="B106">
-        <v>1.1367901234567901</v>
+        <v>1.006310351912183</v>
       </c>
       <c r="C106">
-        <v>1.006310351912183</v>
+        <v>1.13679012345679</v>
       </c>
       <c r="D106">
-        <v>0.94841269841269826</v>
+        <v>0.9829173810884614</v>
       </c>
       <c r="E106">
-        <v>0.98291738108846138</v>
+        <v>0.9484279708686126</v>
       </c>
       <c r="F106">
-        <v>1.033400681038106</v>
+        <v>1.004878488286751</v>
       </c>
       <c r="G106">
-        <v>1.0511676412061359</v>
+        <v>1.051167641206136</v>
       </c>
       <c r="H106">
-        <v>1.0048279792527379</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.004827979252738</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="2">
         <v>44357</v>
       </c>
       <c r="B107">
-        <v>1.1417283950617281</v>
+        <v>1.012180446714214</v>
       </c>
       <c r="C107">
-        <v>1.0121804467142139</v>
+        <v>1.141728395061728</v>
       </c>
       <c r="D107">
-        <v>0.9365079365079364</v>
+        <v>0.9962532545881755</v>
       </c>
       <c r="E107">
-        <v>0.99625325458817549</v>
+        <v>0.9364675232399786</v>
       </c>
       <c r="F107">
-        <v>1.03848481156674</v>
+        <v>1.00594260674426</v>
       </c>
       <c r="G107">
         <v>1.062591976579641</v>
       </c>
       <c r="H107">
-        <v>1.0115480044288461</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.011548004428846</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="2">
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>0.9930439376595932</v>
+      </c>
+      <c r="C108">
         <v>1.142617283950617</v>
       </c>
-      <c r="C108">
-        <v>0.9930439376595932</v>
-      </c>
       <c r="D108">
-        <v>0.92162698412698418</v>
+        <v>0.9918079634216042</v>
       </c>
       <c r="E108">
-        <v>0.99180796342160416</v>
+        <v>0.9216057789093492</v>
       </c>
       <c r="F108">
-        <v>1.0317072065671249</v>
+        <v>0.9939450116607635</v>
       </c>
       <c r="G108">
-        <v>1.0563536675194869</v>
+        <v>1.056353667519487</v>
       </c>
       <c r="H108">
-        <v>1.0025732592122101</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.00257325921221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="2">
         <v>44362</v>
       </c>
       <c r="B109">
-        <v>1.1035061728395059</v>
+        <v>0.9857943705790848</v>
       </c>
       <c r="C109">
-        <v>0.98579437057908481</v>
+        <v>1.103506172839506</v>
       </c>
       <c r="D109">
-        <v>0.90476190476190466</v>
+        <v>0.9866641265002858</v>
       </c>
       <c r="E109">
-        <v>0.98666412650028579</v>
+        <v>0.9047308899283557</v>
       </c>
       <c r="F109">
-        <v>1.01273304594179</v>
+        <v>0.978609379064312</v>
       </c>
       <c r="G109">
-        <v>1.0465752908305339</v>
+        <v>1.046575290830534</v>
       </c>
       <c r="H109">
         <v>0.9914167125606137</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="2">
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>0.9784274016025359</v>
+      </c>
+      <c r="C110">
         <v>1.05679012345679</v>
       </c>
-      <c r="C110">
-        <v>0.97842740160253594</v>
-      </c>
       <c r="D110">
-        <v>0.90674603174603174</v>
+        <v>0.9594843462246777</v>
       </c>
       <c r="E110">
-        <v>0.95948434622467771</v>
+        <v>0.9067440345787199</v>
       </c>
       <c r="F110">
-        <v>0.98699209273196598</v>
+        <v>0.964576135453282</v>
       </c>
       <c r="G110">
-        <v>1.0312826384340781</v>
+        <v>1.031282638434078</v>
       </c>
       <c r="H110">
         <v>0.9749006483999163</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="2">
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>0.982037509905785</v>
+      </c>
+      <c r="C111">
         <v>1.061037037037037</v>
       </c>
-      <c r="C111">
-        <v>0.98203750990578498</v>
-      </c>
       <c r="D111">
-        <v>0.89484126984126977</v>
+        <v>0.9847590017146123</v>
       </c>
       <c r="E111">
-        <v>0.98475900171461228</v>
+        <v>0.8948427970868613</v>
       </c>
       <c r="F111">
-        <v>0.99540806181667874</v>
+        <v>0.9667472228006533</v>
       </c>
       <c r="G111">
         <v>1.03911664789834</v>
       </c>
       <c r="H111">
-        <v>0.97900711723968548</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9790071172396855</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="2">
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>0.9696809603475096</v>
+      </c>
+      <c r="C112">
         <v>1.078617283950617</v>
       </c>
-      <c r="C112">
-        <v>0.96968096034750961</v>
-      </c>
       <c r="D112">
-        <v>0.88888888888888884</v>
+        <v>0.9961262462691306</v>
       </c>
       <c r="E112">
-        <v>0.9961262462691306</v>
+        <v>0.8888625732725443</v>
       </c>
       <c r="F112">
-        <v>1.002115562936029</v>
+        <v>0.9653488581843513</v>
       </c>
       <c r="G112">
-        <v>1.0456486537848411</v>
+        <v>1.045648653784841</v>
       </c>
       <c r="H112">
-        <v>0.97911841405870725</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9791184140587073</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="2">
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>0.9600246543981686</v>
+      </c>
+      <c r="C113">
         <v>1.07358024691358</v>
       </c>
-      <c r="C113">
-        <v>0.96002465439816864</v>
-      </c>
       <c r="D113">
-        <v>0.88293650793650791</v>
+        <v>0.9971423128214898</v>
       </c>
       <c r="E113">
-        <v>0.9971423128214898</v>
+        <v>0.8829415595950026</v>
       </c>
       <c r="F113">
-        <v>0.99816283896693059</v>
+        <v>0.9594483195180148</v>
       </c>
       <c r="G113">
         <v>1.053410416970965</v>
       </c>
       <c r="H113">
-        <v>0.97680036996597774</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9768003699659777</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="2">
         <v>44369</v>
       </c>
       <c r="B114">
-        <v>1.0794074074074069</v>
+        <v>0.9653370901940067</v>
       </c>
       <c r="C114">
-        <v>0.96533709019400671</v>
+        <v>1.079407407407407</v>
       </c>
       <c r="D114">
-        <v>0.89186507936507931</v>
+        <v>1.003873753730869</v>
       </c>
       <c r="E114">
-        <v>1.0038737537308691</v>
+        <v>0.8918822902480904</v>
       </c>
       <c r="F114">
-        <v>1.0047152152269549</v>
+        <v>0.9662771580356477</v>
       </c>
       <c r="G114">
         <v>1.058532049862497</v>
       </c>
       <c r="H114">
-        <v>0.98289674917342917</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9828967491734292</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="2">
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>0.9529511901617211</v>
+      </c>
+      <c r="C115">
         <v>1.096691358024692</v>
       </c>
-      <c r="C115">
-        <v>0.95295119016172114</v>
-      </c>
       <c r="D115">
-        <v>0.89781746031746024</v>
+        <v>1.019368768654347</v>
       </c>
       <c r="E115">
-        <v>1.0193687686543469</v>
+        <v>0.897803303925632</v>
       </c>
       <c r="F115">
-        <v>1.0146435827133951</v>
+        <v>0.9694284158524851</v>
       </c>
       <c r="G115">
         <v>1.066410035322148</v>
       </c>
       <c r="H115">
-        <v>0.98773816080087662</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9877381608008766</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="2">
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>0.9544774148102492</v>
+      </c>
+      <c r="C116">
         <v>1.089975308641975</v>
       </c>
-      <c r="C116">
-        <v>0.95447741481024917</v>
-      </c>
       <c r="D116">
-        <v>0.89781746031746024</v>
+        <v>1.011811773671175</v>
       </c>
       <c r="E116">
-        <v>1.0118117736711749</v>
+        <v>0.897803303925632</v>
       </c>
       <c r="F116">
-        <v>1.0101181446458321</v>
+        <v>0.9675922799126131</v>
       </c>
       <c r="G116">
         <v>1.060900471328436</v>
       </c>
       <c r="H116">
-        <v>0.98938458615812985</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.9893845861581299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="2">
         <v>44372</v>
       </c>
       <c r="B117">
-        <v>1.1173333333333331</v>
+        <v>0.9716767925802002</v>
       </c>
       <c r="C117">
-        <v>0.97167679258020023</v>
+        <v>1.117333333333333</v>
       </c>
       <c r="D117">
-        <v>0.90773809523809523</v>
+        <v>1.01505048580682</v>
       </c>
       <c r="E117">
-        <v>1.0150504858068199</v>
+        <v>0.9077506069039019</v>
       </c>
       <c r="F117">
-        <v>1.024963450139603</v>
+        <v>0.981771139913681</v>
       </c>
       <c r="G117">
-        <v>1.0700945955072241</v>
+        <v>1.070094595507224</v>
       </c>
       <c r="H117">
         <v>1.00550343580956</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="2">
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.1173333333333331</v>
+        <v>0.9862052772152271</v>
       </c>
       <c r="C118">
-        <v>0.97167679258020023</v>
+        <v>1.108444444444445</v>
       </c>
       <c r="D118">
-        <v>0.90773809523809523</v>
+        <v>1.025973201244681</v>
       </c>
       <c r="E118">
-        <v>1.0150504858068199</v>
+        <v>0.8958493694120433</v>
       </c>
       <c r="F118">
-        <v>1.024963450139603</v>
+        <v>0.9831189976978574</v>
       </c>
       <c r="G118">
-        <v>1.0724671318698751</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="H118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>0.9725573068005049</v>
+      </c>
+      <c r="C119">
+        <v>1.093728395061728</v>
+      </c>
+      <c r="D119">
+        <v>1.016003048199657</v>
+      </c>
+      <c r="E119">
+        <v>0.8848954941085914</v>
+      </c>
+      <c r="F119">
+        <v>0.9707906855061355</v>
+      </c>
+      <c r="G119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="H119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>0.9734378210208096</v>
+      </c>
+      <c r="C120">
+        <v>1.111901234567901</v>
+      </c>
+      <c r="D120">
+        <v>1.038928049787261</v>
+      </c>
+      <c r="E120">
+        <v>0.8869086387589555</v>
+      </c>
+      <c r="F120">
+        <v>0.9785355418561325</v>
+      </c>
+      <c r="G120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="H120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>0.9803645328872062</v>
+      </c>
+      <c r="C121">
+        <v>1.092049382716049</v>
+      </c>
+      <c r="D121">
+        <v>1.031117038166</v>
+      </c>
+      <c r="E121">
+        <v>0.8898691455977262</v>
+      </c>
+      <c r="F121">
+        <v>0.9773032186744379</v>
+      </c>
+      <c r="G121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="H121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.9532153444278125</v>
+      </c>
+      <c r="C122">
+        <v>1.105679012345679</v>
+      </c>
+      <c r="D122">
+        <v>1.005588366037975</v>
+      </c>
+      <c r="E122">
+        <v>0.8631061637752383</v>
+      </c>
+      <c r="F122">
+        <v>0.9572773685845879</v>
+      </c>
+      <c r="G122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="H122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.9479322591059846</v>
+      </c>
+      <c r="C123">
+        <v>1.155950617283951</v>
+      </c>
+      <c r="D123">
+        <v>1.011684765352131</v>
+      </c>
+      <c r="E123">
+        <v>0.866066670614009</v>
+      </c>
+      <c r="F123">
+        <v>0.9657588075336112</v>
+      </c>
+      <c r="G123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="H123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.9433829356344106</v>
+      </c>
+      <c r="C124">
+        <v>1.167012345679012</v>
+      </c>
+      <c r="D124">
+        <v>1.004191274528482</v>
+      </c>
+      <c r="E124">
+        <v>0.8799218426194564</v>
+      </c>
+      <c r="F124">
+        <v>0.9693730035143567</v>
+      </c>
+      <c r="G124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="H124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>0.9463473335094362</v>
+      </c>
+      <c r="C125">
+        <v>1.202469135802469</v>
+      </c>
+      <c r="D125">
+        <v>1.016574585635359</v>
+      </c>
+      <c r="E125">
+        <v>0.8740008289419148</v>
+      </c>
+      <c r="F125">
+        <v>0.9763205809812819</v>
+      </c>
+      <c r="G125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="H125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.9301458718558304</v>
+      </c>
+      <c r="C126">
+        <v>1.20720987654321</v>
+      </c>
+      <c r="D126">
+        <v>1.023496539023306</v>
+      </c>
+      <c r="E126">
+        <v>0.8551720054473325</v>
+      </c>
+      <c r="F126">
+        <v>0.9665229167970771</v>
+      </c>
+      <c r="G126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="H126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>0.9139150597282146</v>
+      </c>
+      <c r="C127">
+        <v>1.275259259259259</v>
+      </c>
+      <c r="D127">
+        <v>1.011684765352131</v>
+      </c>
+      <c r="E127">
+        <v>0.8491917816330155</v>
+      </c>
+      <c r="F127">
+        <v>0.9683101723073675</v>
+      </c>
+      <c r="G127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="H127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4084,7 +4301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4107,7 +4324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4130,7 +4347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4154,25 +4371,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -4204,721 +4420,721 @@
       <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2">
-        <v>0.34</v>
+        <v>0.165</v>
       </c>
       <c r="J2">
-        <v>39.53</v>
+        <v>8.680999755859375</v>
       </c>
       <c r="K2">
-        <v>3.11</v>
+        <v>37.81980133056641</v>
       </c>
       <c r="L2">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="M2">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>21.132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3">
-        <v>0.16500000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="J3">
-        <v>41.16</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K3">
-        <v>9.26</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L3">
-        <v>13.51</v>
-      </c>
-      <c r="M3">
-        <v>21.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4">
-        <v>0.16500000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="J4">
-        <v>10.59</v>
+        <v>6.168000221252441</v>
       </c>
       <c r="K4">
-        <v>1.1399999999999999</v>
+        <v>45.57669830322266</v>
       </c>
       <c r="L4">
-        <v>7.93</v>
-      </c>
-      <c r="M4">
-        <v>-10.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16.2202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5">
-        <v>0.33</v>
+        <v>0.165</v>
       </c>
       <c r="J5">
-        <v>46.01</v>
+        <v>1.080199956893921</v>
       </c>
       <c r="K5">
-        <v>6.21</v>
+        <v>9.924599647521973</v>
       </c>
       <c r="L5">
-        <v>20.56</v>
-      </c>
-      <c r="M5">
-        <v>16.22</v>
+        <v>-10.1588</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>174</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" t="s">
-        <v>189</v>
+      <c r="C11" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>